--- a/Code/Results/Cases/Case_4_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_24/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.87729059670875</v>
+        <v>26.87729059670881</v>
       </c>
       <c r="C2">
-        <v>34.10610048103472</v>
+        <v>34.10610048103471</v>
       </c>
       <c r="D2">
-        <v>9.821185655701084</v>
+        <v>9.821185655701056</v>
       </c>
       <c r="E2">
-        <v>19.60605114649374</v>
+        <v>19.60605114649373</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,10 +430,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>65.07776256835565</v>
+        <v>65.07776256835577</v>
       </c>
       <c r="I2">
-        <v>10.77870897494419</v>
+        <v>10.77870897494418</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.59325353038878</v>
+        <v>24.59325353038891</v>
       </c>
       <c r="C3">
         <v>31.34468311024777</v>
       </c>
       <c r="D3">
-        <v>9.083637604758762</v>
+        <v>9.083637604758804</v>
       </c>
       <c r="E3">
-        <v>17.98926558174937</v>
+        <v>17.9892655817493</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.57959224104456</v>
+        <v>60.57959224104443</v>
       </c>
       <c r="I3">
-        <v>9.938413571637225</v>
+        <v>9.938413571637158</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.16879830994368</v>
+        <v>23.16879830994392</v>
       </c>
       <c r="C4">
-        <v>29.61477749018614</v>
+        <v>29.61477749018634</v>
       </c>
       <c r="D4">
-        <v>8.654247611201813</v>
+        <v>8.65424761120188</v>
       </c>
       <c r="E4">
-        <v>16.97686206287937</v>
+        <v>16.97686206287946</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57.77479501447229</v>
+        <v>57.77479501447274</v>
       </c>
       <c r="I4">
-        <v>9.413492945715204</v>
+        <v>9.413492945715186</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.58100881629035</v>
+        <v>22.58100881629021</v>
       </c>
       <c r="C5">
-        <v>28.89934477705979</v>
+        <v>28.89934477705985</v>
       </c>
       <c r="D5">
-        <v>8.478526735046392</v>
+        <v>8.478526735046305</v>
       </c>
       <c r="E5">
-        <v>16.55813173168649</v>
+        <v>16.55813173168635</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,10 +544,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.61882468417709</v>
+        <v>56.61882468417637</v>
       </c>
       <c r="I5">
-        <v>9.196681390909623</v>
+        <v>9.19668139090955</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.48292073702773</v>
+        <v>22.48292073702757</v>
       </c>
       <c r="C6">
-        <v>28.77986887206726</v>
+        <v>28.77986887206702</v>
       </c>
       <c r="D6">
-        <v>8.449295914664827</v>
+        <v>8.449295914664722</v>
       </c>
       <c r="E6">
-        <v>16.48819853513588</v>
+        <v>16.48819853513582</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.42604064216541</v>
+        <v>56.4260406421648</v>
       </c>
       <c r="I6">
-        <v>9.160488505512941</v>
+        <v>9.160488505512927</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.16090283829566</v>
+        <v>23.16090283829574</v>
       </c>
       <c r="C7">
-        <v>29.60517347593908</v>
+        <v>29.60517347593921</v>
       </c>
       <c r="D7">
-        <v>8.651881146107607</v>
+        <v>8.651881146107661</v>
       </c>
       <c r="E7">
-        <v>16.97124131577396</v>
+        <v>16.97124131577398</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57.75926020896378</v>
+        <v>57.75926020896438</v>
       </c>
       <c r="I7">
-        <v>9.410581449649511</v>
+        <v>9.41058144964955</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.0931306912757</v>
+        <v>26.09313069127555</v>
       </c>
       <c r="C8">
-        <v>33.15984845269249</v>
+        <v>33.15984845269224</v>
       </c>
       <c r="D8">
-        <v>9.547984257095781</v>
+        <v>9.547984257095624</v>
       </c>
       <c r="E8">
-        <v>19.05184934750131</v>
+        <v>19.05184934750127</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,10 +658,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.53413315537312</v>
+        <v>63.53413315537257</v>
       </c>
       <c r="I8">
-        <v>10.49040019491735</v>
+        <v>10.49040019491738</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31.7773765820948</v>
+        <v>31.77737658209492</v>
       </c>
       <c r="C9">
-        <v>39.97214835979573</v>
+        <v>39.9721483597956</v>
       </c>
       <c r="D9">
-        <v>11.51110258299972</v>
+        <v>11.51110258299977</v>
       </c>
       <c r="E9">
-        <v>23.04999235773489</v>
+        <v>23.04999235773495</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>74.66753365020996</v>
+        <v>74.66753365020999</v>
       </c>
       <c r="I9">
         <v>12.57662015468247</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.14342097162415</v>
+        <v>36.14342097162437</v>
       </c>
       <c r="C10">
-        <v>45.12327386501893</v>
+        <v>45.12327386501896</v>
       </c>
       <c r="D10">
-        <v>12.99030380764176</v>
+        <v>12.99030380764195</v>
       </c>
       <c r="E10">
-        <v>26.09376239982475</v>
+        <v>26.09376239982495</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>83.06278276295464</v>
+        <v>83.06278276295509</v>
       </c>
       <c r="I10">
-        <v>14.17508580775642</v>
+        <v>14.17508580775645</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>38.2647074980303</v>
+        <v>38.26470749803011</v>
       </c>
       <c r="C11">
-        <v>47.59780281722158</v>
+        <v>47.59780281722145</v>
       </c>
       <c r="D11">
-        <v>13.69936653817983</v>
+        <v>13.69936653817982</v>
       </c>
       <c r="E11">
-        <v>27.56552576506921</v>
+        <v>27.56552576506904</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,10 +772,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>87.15402946576469</v>
+        <v>87.15402946576384</v>
       </c>
       <c r="I11">
-        <v>14.95156260301058</v>
+        <v>14.95156260301048</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>39.10186017050262</v>
+        <v>39.10186017050254</v>
       </c>
       <c r="C12">
-        <v>48.56904190940158</v>
+        <v>48.56904190940152</v>
       </c>
       <c r="D12">
-        <v>13.97739286133862</v>
+        <v>13.9773928613387</v>
       </c>
       <c r="E12">
-        <v>28.14528115084248</v>
+        <v>28.14528115084243</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>88.77600657825488</v>
+        <v>88.77600657825442</v>
       </c>
       <c r="I12">
-        <v>15.25813765718456</v>
+        <v>15.25813765718449</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>38.91972044217946</v>
+        <v>38.9197204421794</v>
       </c>
       <c r="C13">
-        <v>48.35798910491402</v>
+        <v>48.35798910491366</v>
       </c>
       <c r="D13">
-        <v>13.91699052116493</v>
+        <v>13.91699052116476</v>
       </c>
       <c r="E13">
-        <v>28.01919027851769</v>
+        <v>28.01919027851748</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,10 +848,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>88.42402141791139</v>
+        <v>88.42402141791047</v>
       </c>
       <c r="I13">
-        <v>15.19142524320742</v>
+        <v>15.19142524320738</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>38.33278448097477</v>
+        <v>38.33278448097487</v>
       </c>
       <c r="C14">
-        <v>47.67689748675426</v>
+        <v>47.67689748675444</v>
       </c>
       <c r="D14">
-        <v>13.72201404806541</v>
+        <v>13.7220140480655</v>
       </c>
       <c r="E14">
-        <v>27.61269227611742</v>
+        <v>27.61269227611746</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>87.28632384733605</v>
+        <v>87.28632384733676</v>
       </c>
       <c r="I14">
-        <v>14.97648885764568</v>
+        <v>14.97648885764567</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.97826795811755</v>
+        <v>37.97826795811729</v>
       </c>
       <c r="C15">
-        <v>47.26478602396222</v>
+        <v>47.26478602396206</v>
       </c>
       <c r="D15">
-        <v>13.60400101659491</v>
+        <v>13.60400101659485</v>
       </c>
       <c r="E15">
-        <v>27.36702641184876</v>
+        <v>27.36702641184864</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>86.59663451991224</v>
+        <v>86.59663451991186</v>
       </c>
       <c r="I15">
-        <v>14.84669035576225</v>
+        <v>14.84669035576222</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.00855147854927</v>
+        <v>36.00855147854943</v>
       </c>
       <c r="C16">
-        <v>44.96530395835548</v>
+        <v>44.96530395835524</v>
       </c>
       <c r="D16">
-        <v>12.9450045277073</v>
+        <v>12.94500452770714</v>
       </c>
       <c r="E16">
         <v>26.0000459001366</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>82.80632938748448</v>
+        <v>82.80632938748397</v>
       </c>
       <c r="I16">
-        <v>14.12572573344344</v>
+        <v>14.1257257334435</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>34.84263530624652</v>
+        <v>34.84263530624612</v>
       </c>
       <c r="C17">
-        <v>43.59656211882181</v>
+        <v>43.5965621188216</v>
       </c>
       <c r="D17">
-        <v>12.5523373269453</v>
+        <v>12.55233732694517</v>
       </c>
       <c r="E17">
         <v>25.18911602872571</v>
@@ -1000,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>80.58105219842577</v>
+        <v>80.58105219842561</v>
       </c>
       <c r="I17">
-        <v>13.69900861975268</v>
+        <v>13.69900861975272</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.18357238641087</v>
+        <v>34.18357238641073</v>
       </c>
       <c r="C18">
-        <v>42.82040000317496</v>
+        <v>42.82040000317495</v>
       </c>
       <c r="D18">
-        <v>12.32953681210599</v>
+        <v>12.32953681210604</v>
       </c>
       <c r="E18">
-        <v>24.73008177295396</v>
+        <v>24.73008177295404</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>79.31689941069202</v>
+        <v>79.31689941069239</v>
       </c>
       <c r="I18">
         <v>13.45776847558222</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.96209464325096</v>
+        <v>33.96209464325074</v>
       </c>
       <c r="C19">
-        <v>42.55918023805414</v>
+        <v>42.55918023805413</v>
       </c>
       <c r="D19">
-        <v>12.2545308622673</v>
+        <v>12.25453086226738</v>
       </c>
       <c r="E19">
-        <v>24.57571659282048</v>
+        <v>24.57571659282041</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>78.89112138807765</v>
+        <v>78.89112138807702</v>
       </c>
       <c r="I19">
-        <v>13.37669227090236</v>
+        <v>13.37669227090224</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34.9654765015265</v>
+        <v>34.96547650152642</v>
       </c>
       <c r="C20">
-        <v>43.74103520233336</v>
+        <v>43.74103520233323</v>
       </c>
       <c r="D20">
-        <v>12.5937982459517</v>
+        <v>12.59379824595184</v>
       </c>
       <c r="E20">
-        <v>25.27462256768182</v>
+        <v>25.27462256768185</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>80.81618845584896</v>
+        <v>80.81618845584907</v>
       </c>
       <c r="I20">
-        <v>13.7439697918038</v>
+        <v>13.7439697918037</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>38.50409934165528</v>
+        <v>38.50409934165513</v>
       </c>
       <c r="C21">
-        <v>47.87584934169099</v>
+        <v>47.87584934169043</v>
       </c>
       <c r="D21">
-        <v>13.77897615149658</v>
+        <v>13.77897615149643</v>
       </c>
       <c r="E21">
-        <v>27.73136939963393</v>
+        <v>27.73136939963385</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>87.61893360632369</v>
+        <v>87.61893360632196</v>
       </c>
       <c r="I21">
-        <v>15.03921855334616</v>
+        <v>15.03921855334621</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>41.02995526675677</v>
+        <v>41.02995526675682</v>
       </c>
       <c r="C22">
-        <v>50.79420927941247</v>
+        <v>50.79420927941256</v>
       </c>
       <c r="D22">
         <v>14.61375870985521</v>
       </c>
       <c r="E22">
-        <v>29.47863856350273</v>
+        <v>29.47863856350277</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>92.46983661385066</v>
+        <v>92.46983661385094</v>
       </c>
       <c r="I22">
-        <v>15.96485762669121</v>
+        <v>15.96485762669125</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>39.65451491311527</v>
+        <v>39.65451491311543</v>
       </c>
       <c r="C23">
-        <v>49.20853379698343</v>
+        <v>49.20853379698335</v>
       </c>
       <c r="D23">
-        <v>14.16036620574827</v>
+        <v>14.16036620574842</v>
       </c>
       <c r="E23">
-        <v>28.52771987323032</v>
+        <v>28.52771987323043</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>89.84085711899739</v>
+        <v>89.8408571189979</v>
       </c>
       <c r="I23">
-        <v>15.46060251724169</v>
+        <v>15.46060251724176</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34.90990592734855</v>
+        <v>34.90990592734858</v>
       </c>
       <c r="C24">
-        <v>43.67568644062252</v>
+        <v>43.6756864406225</v>
       </c>
       <c r="D24">
-        <v>12.57504485810387</v>
+        <v>12.57504485810386</v>
       </c>
       <c r="E24">
-        <v>25.23594333576127</v>
+        <v>25.2359433357613</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>80.70983743619777</v>
+        <v>80.70983743619786</v>
       </c>
       <c r="I24">
-        <v>13.72363047242272</v>
+        <v>13.72363047242273</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30.22816088197474</v>
+        <v>30.2281608819745</v>
       </c>
       <c r="C25">
-        <v>38.12670003612424</v>
+        <v>38.12670003612408</v>
       </c>
       <c r="D25">
-        <v>10.98010876354579</v>
+        <v>10.98010876354553</v>
       </c>
       <c r="E25">
-        <v>21.9645703446086</v>
+        <v>21.96457034460852</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,10 +1304,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>71.64994970808763</v>
+        <v>71.64994970808691</v>
       </c>
       <c r="I25">
-        <v>12.00879671799756</v>
+        <v>12.00879671799761</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_24/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.87729059670881</v>
+        <v>26.87729059670875</v>
       </c>
       <c r="C2">
-        <v>34.10610048103471</v>
+        <v>34.10610048103472</v>
       </c>
       <c r="D2">
-        <v>9.821185655701056</v>
+        <v>9.821185655701084</v>
       </c>
       <c r="E2">
-        <v>19.60605114649373</v>
+        <v>19.60605114649374</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,10 +430,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>65.07776256835577</v>
+        <v>65.07776256835565</v>
       </c>
       <c r="I2">
-        <v>10.77870897494418</v>
+        <v>10.77870897494419</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.59325353038891</v>
+        <v>24.59325353038878</v>
       </c>
       <c r="C3">
         <v>31.34468311024777</v>
       </c>
       <c r="D3">
-        <v>9.083637604758804</v>
+        <v>9.083637604758762</v>
       </c>
       <c r="E3">
-        <v>17.9892655817493</v>
+        <v>17.98926558174937</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.57959224104443</v>
+        <v>60.57959224104456</v>
       </c>
       <c r="I3">
-        <v>9.938413571637158</v>
+        <v>9.938413571637225</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.16879830994392</v>
+        <v>23.16879830994368</v>
       </c>
       <c r="C4">
-        <v>29.61477749018634</v>
+        <v>29.61477749018614</v>
       </c>
       <c r="D4">
-        <v>8.65424761120188</v>
+        <v>8.654247611201813</v>
       </c>
       <c r="E4">
-        <v>16.97686206287946</v>
+        <v>16.97686206287937</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57.77479501447274</v>
+        <v>57.77479501447229</v>
       </c>
       <c r="I4">
-        <v>9.413492945715186</v>
+        <v>9.413492945715204</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.58100881629021</v>
+        <v>22.58100881629035</v>
       </c>
       <c r="C5">
-        <v>28.89934477705985</v>
+        <v>28.89934477705979</v>
       </c>
       <c r="D5">
-        <v>8.478526735046305</v>
+        <v>8.478526735046392</v>
       </c>
       <c r="E5">
-        <v>16.55813173168635</v>
+        <v>16.55813173168649</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,10 +544,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.61882468417637</v>
+        <v>56.61882468417709</v>
       </c>
       <c r="I5">
-        <v>9.19668139090955</v>
+        <v>9.196681390909623</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.48292073702757</v>
+        <v>22.48292073702773</v>
       </c>
       <c r="C6">
-        <v>28.77986887206702</v>
+        <v>28.77986887206726</v>
       </c>
       <c r="D6">
-        <v>8.449295914664722</v>
+        <v>8.449295914664827</v>
       </c>
       <c r="E6">
-        <v>16.48819853513582</v>
+        <v>16.48819853513588</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.4260406421648</v>
+        <v>56.42604064216541</v>
       </c>
       <c r="I6">
-        <v>9.160488505512927</v>
+        <v>9.160488505512941</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.16090283829574</v>
+        <v>23.16090283829566</v>
       </c>
       <c r="C7">
-        <v>29.60517347593921</v>
+        <v>29.60517347593908</v>
       </c>
       <c r="D7">
-        <v>8.651881146107661</v>
+        <v>8.651881146107607</v>
       </c>
       <c r="E7">
-        <v>16.97124131577398</v>
+        <v>16.97124131577396</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57.75926020896438</v>
+        <v>57.75926020896378</v>
       </c>
       <c r="I7">
-        <v>9.41058144964955</v>
+        <v>9.410581449649511</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.09313069127555</v>
+        <v>26.0931306912757</v>
       </c>
       <c r="C8">
-        <v>33.15984845269224</v>
+        <v>33.15984845269249</v>
       </c>
       <c r="D8">
-        <v>9.547984257095624</v>
+        <v>9.547984257095781</v>
       </c>
       <c r="E8">
-        <v>19.05184934750127</v>
+        <v>19.05184934750131</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,10 +658,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.53413315537257</v>
+        <v>63.53413315537312</v>
       </c>
       <c r="I8">
-        <v>10.49040019491738</v>
+        <v>10.49040019491735</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31.77737658209492</v>
+        <v>31.7773765820948</v>
       </c>
       <c r="C9">
-        <v>39.9721483597956</v>
+        <v>39.97214835979573</v>
       </c>
       <c r="D9">
-        <v>11.51110258299977</v>
+        <v>11.51110258299972</v>
       </c>
       <c r="E9">
-        <v>23.04999235773495</v>
+        <v>23.04999235773489</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>74.66753365020999</v>
+        <v>74.66753365020996</v>
       </c>
       <c r="I9">
         <v>12.57662015468247</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.14342097162437</v>
+        <v>36.14342097162415</v>
       </c>
       <c r="C10">
-        <v>45.12327386501896</v>
+        <v>45.12327386501893</v>
       </c>
       <c r="D10">
-        <v>12.99030380764195</v>
+        <v>12.99030380764176</v>
       </c>
       <c r="E10">
-        <v>26.09376239982495</v>
+        <v>26.09376239982475</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>83.06278276295509</v>
+        <v>83.06278276295464</v>
       </c>
       <c r="I10">
-        <v>14.17508580775645</v>
+        <v>14.17508580775642</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>38.26470749803011</v>
+        <v>38.2647074980303</v>
       </c>
       <c r="C11">
-        <v>47.59780281722145</v>
+        <v>47.59780281722158</v>
       </c>
       <c r="D11">
-        <v>13.69936653817982</v>
+        <v>13.69936653817983</v>
       </c>
       <c r="E11">
-        <v>27.56552576506904</v>
+        <v>27.56552576506921</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,10 +772,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>87.15402946576384</v>
+        <v>87.15402946576469</v>
       </c>
       <c r="I11">
-        <v>14.95156260301048</v>
+        <v>14.95156260301058</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>39.10186017050254</v>
+        <v>39.10186017050262</v>
       </c>
       <c r="C12">
-        <v>48.56904190940152</v>
+        <v>48.56904190940158</v>
       </c>
       <c r="D12">
-        <v>13.9773928613387</v>
+        <v>13.97739286133862</v>
       </c>
       <c r="E12">
-        <v>28.14528115084243</v>
+        <v>28.14528115084248</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>88.77600657825442</v>
+        <v>88.77600657825488</v>
       </c>
       <c r="I12">
-        <v>15.25813765718449</v>
+        <v>15.25813765718456</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>38.9197204421794</v>
+        <v>38.91972044217946</v>
       </c>
       <c r="C13">
-        <v>48.35798910491366</v>
+        <v>48.35798910491402</v>
       </c>
       <c r="D13">
-        <v>13.91699052116476</v>
+        <v>13.91699052116493</v>
       </c>
       <c r="E13">
-        <v>28.01919027851748</v>
+        <v>28.01919027851769</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,10 +848,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>88.42402141791047</v>
+        <v>88.42402141791139</v>
       </c>
       <c r="I13">
-        <v>15.19142524320738</v>
+        <v>15.19142524320742</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>38.33278448097487</v>
+        <v>38.33278448097477</v>
       </c>
       <c r="C14">
-        <v>47.67689748675444</v>
+        <v>47.67689748675426</v>
       </c>
       <c r="D14">
-        <v>13.7220140480655</v>
+        <v>13.72201404806541</v>
       </c>
       <c r="E14">
-        <v>27.61269227611746</v>
+        <v>27.61269227611742</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>87.28632384733676</v>
+        <v>87.28632384733605</v>
       </c>
       <c r="I14">
-        <v>14.97648885764567</v>
+        <v>14.97648885764568</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.97826795811729</v>
+        <v>37.97826795811755</v>
       </c>
       <c r="C15">
-        <v>47.26478602396206</v>
+        <v>47.26478602396222</v>
       </c>
       <c r="D15">
-        <v>13.60400101659485</v>
+        <v>13.60400101659491</v>
       </c>
       <c r="E15">
-        <v>27.36702641184864</v>
+        <v>27.36702641184876</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>86.59663451991186</v>
+        <v>86.59663451991224</v>
       </c>
       <c r="I15">
-        <v>14.84669035576222</v>
+        <v>14.84669035576225</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.00855147854943</v>
+        <v>36.00855147854927</v>
       </c>
       <c r="C16">
-        <v>44.96530395835524</v>
+        <v>44.96530395835548</v>
       </c>
       <c r="D16">
-        <v>12.94500452770714</v>
+        <v>12.9450045277073</v>
       </c>
       <c r="E16">
         <v>26.0000459001366</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>82.80632938748397</v>
+        <v>82.80632938748448</v>
       </c>
       <c r="I16">
-        <v>14.1257257334435</v>
+        <v>14.12572573344344</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>34.84263530624612</v>
+        <v>34.84263530624652</v>
       </c>
       <c r="C17">
-        <v>43.5965621188216</v>
+        <v>43.59656211882181</v>
       </c>
       <c r="D17">
-        <v>12.55233732694517</v>
+        <v>12.5523373269453</v>
       </c>
       <c r="E17">
         <v>25.18911602872571</v>
@@ -1000,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>80.58105219842561</v>
+        <v>80.58105219842577</v>
       </c>
       <c r="I17">
-        <v>13.69900861975272</v>
+        <v>13.69900861975268</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.18357238641073</v>
+        <v>34.18357238641087</v>
       </c>
       <c r="C18">
-        <v>42.82040000317495</v>
+        <v>42.82040000317496</v>
       </c>
       <c r="D18">
-        <v>12.32953681210604</v>
+        <v>12.32953681210599</v>
       </c>
       <c r="E18">
-        <v>24.73008177295404</v>
+        <v>24.73008177295396</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>79.31689941069239</v>
+        <v>79.31689941069202</v>
       </c>
       <c r="I18">
         <v>13.45776847558222</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.96209464325074</v>
+        <v>33.96209464325096</v>
       </c>
       <c r="C19">
-        <v>42.55918023805413</v>
+        <v>42.55918023805414</v>
       </c>
       <c r="D19">
-        <v>12.25453086226738</v>
+        <v>12.2545308622673</v>
       </c>
       <c r="E19">
-        <v>24.57571659282041</v>
+        <v>24.57571659282048</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>78.89112138807702</v>
+        <v>78.89112138807765</v>
       </c>
       <c r="I19">
-        <v>13.37669227090224</v>
+        <v>13.37669227090236</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34.96547650152642</v>
+        <v>34.9654765015265</v>
       </c>
       <c r="C20">
-        <v>43.74103520233323</v>
+        <v>43.74103520233336</v>
       </c>
       <c r="D20">
-        <v>12.59379824595184</v>
+        <v>12.5937982459517</v>
       </c>
       <c r="E20">
-        <v>25.27462256768185</v>
+        <v>25.27462256768182</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>80.81618845584907</v>
+        <v>80.81618845584896</v>
       </c>
       <c r="I20">
-        <v>13.7439697918037</v>
+        <v>13.7439697918038</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>38.50409934165513</v>
+        <v>38.50409934165528</v>
       </c>
       <c r="C21">
-        <v>47.87584934169043</v>
+        <v>47.87584934169099</v>
       </c>
       <c r="D21">
-        <v>13.77897615149643</v>
+        <v>13.77897615149658</v>
       </c>
       <c r="E21">
-        <v>27.73136939963385</v>
+        <v>27.73136939963393</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>87.61893360632196</v>
+        <v>87.61893360632369</v>
       </c>
       <c r="I21">
-        <v>15.03921855334621</v>
+        <v>15.03921855334616</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>41.02995526675682</v>
+        <v>41.02995526675677</v>
       </c>
       <c r="C22">
-        <v>50.79420927941256</v>
+        <v>50.79420927941247</v>
       </c>
       <c r="D22">
         <v>14.61375870985521</v>
       </c>
       <c r="E22">
-        <v>29.47863856350277</v>
+        <v>29.47863856350273</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>92.46983661385094</v>
+        <v>92.46983661385066</v>
       </c>
       <c r="I22">
-        <v>15.96485762669125</v>
+        <v>15.96485762669121</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>39.65451491311543</v>
+        <v>39.65451491311527</v>
       </c>
       <c r="C23">
-        <v>49.20853379698335</v>
+        <v>49.20853379698343</v>
       </c>
       <c r="D23">
-        <v>14.16036620574842</v>
+        <v>14.16036620574827</v>
       </c>
       <c r="E23">
-        <v>28.52771987323043</v>
+        <v>28.52771987323032</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>89.8408571189979</v>
+        <v>89.84085711899739</v>
       </c>
       <c r="I23">
-        <v>15.46060251724176</v>
+        <v>15.46060251724169</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34.90990592734858</v>
+        <v>34.90990592734855</v>
       </c>
       <c r="C24">
-        <v>43.6756864406225</v>
+        <v>43.67568644062252</v>
       </c>
       <c r="D24">
-        <v>12.57504485810386</v>
+        <v>12.57504485810387</v>
       </c>
       <c r="E24">
-        <v>25.2359433357613</v>
+        <v>25.23594333576127</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>80.70983743619786</v>
+        <v>80.70983743619777</v>
       </c>
       <c r="I24">
-        <v>13.72363047242273</v>
+        <v>13.72363047242272</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30.2281608819745</v>
+        <v>30.22816088197474</v>
       </c>
       <c r="C25">
-        <v>38.12670003612408</v>
+        <v>38.12670003612424</v>
       </c>
       <c r="D25">
-        <v>10.98010876354553</v>
+        <v>10.98010876354579</v>
       </c>
       <c r="E25">
-        <v>21.96457034460852</v>
+        <v>21.9645703446086</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,10 +1304,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>71.64994970808691</v>
+        <v>71.64994970808763</v>
       </c>
       <c r="I25">
-        <v>12.00879671799761</v>
+        <v>12.00879671799756</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_24/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,37 +406,40 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.87729059670875</v>
+        <v>26.65126518959599</v>
       </c>
       <c r="C2">
-        <v>34.10610048103472</v>
+        <v>33.91023339896515</v>
       </c>
       <c r="D2">
-        <v>9.821185655701084</v>
+        <v>9.783200978046228</v>
       </c>
       <c r="E2">
-        <v>19.60605114649374</v>
+        <v>19.52814664670237</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.002932756076027</v>
       </c>
       <c r="H2">
-        <v>65.07776256835565</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>10.77870897494419</v>
+        <v>65.0712785248231</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.73961314752814</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,37 +447,40 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.59325353038878</v>
+        <v>24.38891358671331</v>
       </c>
       <c r="C3">
-        <v>31.34468311024777</v>
+        <v>31.17682569053598</v>
       </c>
       <c r="D3">
-        <v>9.083637604758762</v>
+        <v>9.057943981516511</v>
       </c>
       <c r="E3">
-        <v>17.98926558174937</v>
+        <v>17.92059801922059</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.029311030825539</v>
       </c>
       <c r="H3">
-        <v>60.57959224104456</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>9.938413571637225</v>
+        <v>60.61453233405025</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.904327655210036</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,37 +488,40 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.16879830994368</v>
+        <v>22.97811094709015</v>
       </c>
       <c r="C4">
-        <v>29.61477749018614</v>
+        <v>29.4647719261686</v>
       </c>
       <c r="D4">
-        <v>8.654247611201813</v>
+        <v>8.631522510139325</v>
       </c>
       <c r="E4">
-        <v>16.97686206287937</v>
+        <v>16.91351868113406</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.045271578394701</v>
       </c>
       <c r="H4">
-        <v>57.77479501447229</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>9.413492945715204</v>
+        <v>57.83589478951802</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.382294547401978</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,37 +529,40 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.58100881629035</v>
+        <v>22.39603307956256</v>
       </c>
       <c r="C5">
-        <v>28.89934477705979</v>
+        <v>28.75685384536052</v>
       </c>
       <c r="D5">
-        <v>8.478526735046392</v>
+        <v>8.457005436768771</v>
       </c>
       <c r="E5">
-        <v>16.55813173168649</v>
+        <v>16.49690101698591</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.051747150477181</v>
       </c>
       <c r="H5">
-        <v>56.61882468417709</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>9.196681390909623</v>
+        <v>56.69085745934533</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.166629059675786</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,37 +570,40 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.48292073702773</v>
+        <v>22.29890405863769</v>
       </c>
       <c r="C6">
-        <v>28.77986887206726</v>
+        <v>28.63864228927403</v>
       </c>
       <c r="D6">
-        <v>8.449295914664827</v>
+        <v>8.42797447511342</v>
       </c>
       <c r="E6">
-        <v>16.48819853513588</v>
+        <v>16.42731591296234</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.052821477957399</v>
       </c>
       <c r="H6">
-        <v>56.42604064216541</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>9.160488505512941</v>
+        <v>56.49990761197083</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.130625031323747</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,37 +611,40 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.16090283829566</v>
+        <v>22.97029182714957</v>
       </c>
       <c r="C7">
-        <v>29.60517347593908</v>
+        <v>29.45526819180574</v>
       </c>
       <c r="D7">
-        <v>8.651881146107607</v>
+        <v>8.629172288735864</v>
       </c>
       <c r="E7">
-        <v>16.97124131577396</v>
+        <v>16.90792662306414</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.04535898936827</v>
       </c>
       <c r="H7">
-        <v>57.75926020896378</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>9.410581449649511</v>
+        <v>57.82050621974587</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.379398612834386</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,37 +652,40 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.0931306912757</v>
+        <v>25.87455363573494</v>
       </c>
       <c r="C8">
-        <v>33.15984845269249</v>
+        <v>32.97355212196456</v>
       </c>
       <c r="D8">
-        <v>9.547984257095781</v>
+        <v>9.511551662585756</v>
       </c>
       <c r="E8">
-        <v>19.05184934750131</v>
+        <v>18.9772232473417</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.012097678972962</v>
       </c>
       <c r="H8">
-        <v>63.53413315537312</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>10.49040019491735</v>
+        <v>63.54184265551677</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.45308277098259</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,37 +693,40 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31.7773765820948</v>
+        <v>31.50291391638264</v>
       </c>
       <c r="C9">
-        <v>39.97214835979573</v>
+        <v>39.71536156746188</v>
       </c>
       <c r="D9">
-        <v>11.51110258299972</v>
+        <v>11.46202671514168</v>
       </c>
       <c r="E9">
-        <v>23.04999235773489</v>
+        <v>22.94830956562105</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.943131244541033</v>
       </c>
       <c r="H9">
-        <v>74.66753365020996</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>12.57662015468247</v>
+        <v>74.57035502469783</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.52460442020667</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,37 +734,40 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.14342097162415</v>
+        <v>35.81877915855842</v>
       </c>
       <c r="C10">
-        <v>45.12327386501893</v>
+        <v>44.80567550831822</v>
       </c>
       <c r="D10">
-        <v>12.99030380764176</v>
+        <v>12.92834607145759</v>
       </c>
       <c r="E10">
-        <v>26.09376239982475</v>
+        <v>25.96381999289186</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.886290710143146</v>
       </c>
       <c r="H10">
-        <v>83.06278276295464</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>14.17508580775642</v>
+        <v>82.87546106404817</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>14.10764978310046</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,37 +775,40 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>38.2647074980303</v>
+        <v>37.91105819319429</v>
       </c>
       <c r="C11">
-        <v>47.59780281722158</v>
+        <v>47.24595445018559</v>
       </c>
       <c r="D11">
-        <v>13.69936653817983</v>
+        <v>13.62953904557631</v>
       </c>
       <c r="E11">
-        <v>27.56552576506921</v>
+        <v>27.41805007483057</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.857527569788913</v>
       </c>
       <c r="H11">
-        <v>87.15402946576469</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>14.95156260301058</v>
+        <v>86.8677719573475</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>14.87452267082262</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,37 +816,40 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>39.10186017050262</v>
+        <v>38.73554307924557</v>
       </c>
       <c r="C12">
-        <v>48.56904190940158</v>
+        <v>48.20240987884335</v>
       </c>
       <c r="D12">
-        <v>13.97739286133862</v>
+        <v>13.90406011691447</v>
       </c>
       <c r="E12">
-        <v>28.14528115084248</v>
+        <v>27.98994100844671</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.84598008001762</v>
       </c>
       <c r="H12">
-        <v>88.77600657825488</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>15.25813765718456</v>
+        <v>88.46854861722376</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>15.17678158095496</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,37 +857,40 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>38.91972044217946</v>
+        <v>38.55622760545484</v>
       </c>
       <c r="C13">
-        <v>48.35798910491402</v>
+        <v>47.99464467413122</v>
       </c>
       <c r="D13">
-        <v>13.91699052116493</v>
+        <v>13.84444236187626</v>
       </c>
       <c r="E13">
-        <v>28.01919027851769</v>
+        <v>27.86561317414655</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.848501702032649</v>
       </c>
       <c r="H13">
-        <v>88.42402141791139</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>15.19142524320742</v>
+        <v>88.1212798122242</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>15.1110371805932</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,37 +898,40 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>38.33278448097477</v>
+        <v>37.97813397702344</v>
       </c>
       <c r="C14">
-        <v>47.67689748675426</v>
+        <v>47.32387709856425</v>
       </c>
       <c r="D14">
-        <v>13.72201404806541</v>
+        <v>13.65191086360687</v>
       </c>
       <c r="E14">
-        <v>27.61269227611742</v>
+        <v>27.46459919562311</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.856592604362409</v>
       </c>
       <c r="H14">
-        <v>87.28632384733605</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>14.97648885764568</v>
+        <v>86.99838643725471</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>14.89911027171384</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,37 +939,40 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.97826795811755</v>
+        <v>37.62877853572401</v>
       </c>
       <c r="C15">
-        <v>47.26478602396222</v>
+        <v>46.91781414332099</v>
       </c>
       <c r="D15">
-        <v>13.60400101659491</v>
+        <v>13.53531635991574</v>
       </c>
       <c r="E15">
-        <v>27.36702641184876</v>
+        <v>27.2221078352142</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.861453533781965</v>
       </c>
       <c r="H15">
-        <v>86.59663451991224</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>14.84669035576225</v>
+        <v>86.31736484455199</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>14.77105272846414</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,37 +980,40 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.00855147854927</v>
+        <v>35.68562744223912</v>
       </c>
       <c r="C16">
-        <v>44.96530395835548</v>
+        <v>44.64975281908329</v>
       </c>
       <c r="D16">
-        <v>12.9450045277073</v>
+        <v>12.8835047776562</v>
       </c>
       <c r="E16">
-        <v>26.0000459001366</v>
+        <v>25.87111813317482</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.888094741329825</v>
       </c>
       <c r="H16">
-        <v>82.80632938748448</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>14.12572573344344</v>
+        <v>82.62202689720714</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>14.05884465163539</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,37 +1021,40 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>34.84263530624652</v>
+        <v>34.53403883831621</v>
       </c>
       <c r="C17">
-        <v>43.59656211882181</v>
+        <v>43.29817646803065</v>
       </c>
       <c r="D17">
-        <v>12.5523373269453</v>
+        <v>12.49461619676572</v>
       </c>
       <c r="E17">
-        <v>25.18911602872571</v>
+        <v>25.06853336782385</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.903564219204229</v>
       </c>
       <c r="H17">
-        <v>80.58105219842577</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>13.69900861975268</v>
+        <v>80.42211269976207</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>13.6366881854547</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,37 +1062,40 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.18357238641087</v>
+        <v>33.88270272211879</v>
       </c>
       <c r="C18">
-        <v>42.82040000317496</v>
+        <v>42.53134127248871</v>
       </c>
       <c r="D18">
-        <v>12.32953681210599</v>
+        <v>12.27382007748863</v>
       </c>
       <c r="E18">
-        <v>24.73008177295396</v>
+        <v>24.6139059860624</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.91220768101091</v>
       </c>
       <c r="H18">
-        <v>79.31689941069202</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>13.45776847558222</v>
+        <v>79.17177439534353</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>13.39785380060962</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,37 +1103,40 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.96209464325096</v>
+        <v>33.66376778627387</v>
       </c>
       <c r="C19">
-        <v>42.55918023805414</v>
+        <v>42.27320200025918</v>
       </c>
       <c r="D19">
-        <v>12.2545308622673</v>
+        <v>12.19946817321678</v>
       </c>
       <c r="E19">
-        <v>24.57571659282048</v>
+        <v>24.46097567502749</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.915095745622025</v>
       </c>
       <c r="H19">
-        <v>78.89112138807765</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>13.37669227090236</v>
+        <v>78.75056376466537</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>13.31756051058479</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,37 +1144,40 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34.9654765015265</v>
+        <v>34.65541183673654</v>
       </c>
       <c r="C20">
-        <v>43.74103520233336</v>
+        <v>43.44088294684764</v>
       </c>
       <c r="D20">
-        <v>12.5937982459517</v>
+        <v>12.53569348576089</v>
       </c>
       <c r="E20">
-        <v>25.27462256768182</v>
+        <v>25.15319484869477</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.901945068481434</v>
       </c>
       <c r="H20">
-        <v>80.81618845584896</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>13.7439697918038</v>
+        <v>80.65463491339345</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>13.68118782274931</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,37 +1185,40 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>38.50409934165528</v>
+        <v>38.14690740812917</v>
       </c>
       <c r="C21">
-        <v>47.87584934169099</v>
+        <v>47.51985673815743</v>
       </c>
       <c r="D21">
-        <v>13.77897615149658</v>
+        <v>13.70817208121532</v>
       </c>
       <c r="E21">
-        <v>27.73136939963393</v>
+        <v>27.58170583467737</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.854236567809973</v>
       </c>
       <c r="H21">
-        <v>87.61893360632369</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>15.03921855334616</v>
+        <v>87.32673530570878</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>14.96097837775237</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,37 +1226,40 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>41.02995526675677</v>
+        <v>40.63102025810868</v>
       </c>
       <c r="C22">
-        <v>50.79420927941247</v>
+        <v>50.38992258018994</v>
       </c>
       <c r="D22">
-        <v>14.61375870985521</v>
+        <v>14.53125579124079</v>
       </c>
       <c r="E22">
-        <v>29.47863856350273</v>
+        <v>29.30258530766048</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.818981111464338</v>
       </c>
       <c r="H22">
-        <v>92.46983661385066</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>15.96485762669121</v>
+        <v>92.10831941624383</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>15.87211143748556</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,37 +1267,40 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>39.65451491311527</v>
+        <v>39.2793778970639</v>
       </c>
       <c r="C23">
-        <v>49.20853379698343</v>
+        <v>48.83166434626535</v>
       </c>
       <c r="D23">
-        <v>14.16036620574827</v>
+        <v>14.0845727216548</v>
       </c>
       <c r="E23">
-        <v>28.52771987323032</v>
+        <v>28.36684042869901</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.838297908546972</v>
       </c>
       <c r="H23">
-        <v>89.84085711899739</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>15.46060251724169</v>
+        <v>89.51870762923608</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>15.3762034684647</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,37 +1308,40 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34.90990592734855</v>
+        <v>34.60050657641282</v>
       </c>
       <c r="C24">
-        <v>43.67568644062252</v>
+        <v>43.37633450266567</v>
       </c>
       <c r="D24">
-        <v>12.57504485810387</v>
+        <v>12.51711404620334</v>
       </c>
       <c r="E24">
-        <v>25.23594333576127</v>
+        <v>25.11489885207853</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.902677850230624</v>
       </c>
       <c r="H24">
-        <v>80.70983743619777</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>13.72363047242272</v>
+        <v>80.54946801956186</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>13.6610578184645</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,42 +1349,48 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30.22816088197474</v>
+        <v>29.96956670496255</v>
       </c>
       <c r="C25">
-        <v>38.12670003612424</v>
+        <v>37.88961882882734</v>
       </c>
       <c r="D25">
-        <v>10.98010876354579</v>
+        <v>10.93484036380676</v>
       </c>
       <c r="E25">
-        <v>21.9645703446086</v>
+        <v>21.87111524385369</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.962504548504077</v>
       </c>
       <c r="H25">
-        <v>71.64994970808763</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>12.00879671799756</v>
+        <v>71.58212059051431</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.96125658501434</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_24/res_line/loading_percent.xlsx
@@ -420,120 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>16.50957435940595</v>
+      </c>
+      <c r="C2">
+        <v>6.086292438411947</v>
+      </c>
+      <c r="D2">
+        <v>8.924296870357406</v>
+      </c>
+      <c r="E2">
+        <v>8.051733591446938</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>51.21590521668583</v>
+      </c>
+      <c r="H2">
+        <v>15.98907176549586</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>5.013473343875296</v>
+      </c>
+      <c r="K2">
+        <v>12.59328109117454</v>
+      </c>
+      <c r="L2">
+        <v>7.429712846063322</v>
+      </c>
+      <c r="M2">
+        <v>12.33922778908723</v>
+      </c>
+      <c r="N2">
+        <v>17.66044212548578</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>15.75852334528596</v>
+      </c>
+      <c r="C3">
+        <v>5.811879720386804</v>
+      </c>
+      <c r="D3">
+        <v>8.760994522574213</v>
+      </c>
+      <c r="E3">
+        <v>8.059762767045637</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>50.42992106104326</v>
+      </c>
+      <c r="H3">
+        <v>15.93632133784889</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>5.01653799156591</v>
+      </c>
+      <c r="K3">
+        <v>12.0332068452935</v>
+      </c>
+      <c r="L3">
+        <v>7.3785847169364</v>
+      </c>
+      <c r="M3">
+        <v>12.08989096294196</v>
+      </c>
+      <c r="N3">
+        <v>17.82304405761464</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>15.28943865287948</v>
+      </c>
+      <c r="C4">
+        <v>5.637093823396596</v>
+      </c>
+      <c r="D4">
+        <v>8.664177448314025</v>
+      </c>
+      <c r="E4">
+        <v>8.067378251925446</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>49.97611910078684</v>
+      </c>
+      <c r="H4">
+        <v>15.91203384918388</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>5.018605397596543</v>
+      </c>
+      <c r="K4">
+        <v>11.68387297405556</v>
+      </c>
+      <c r="L4">
+        <v>7.3502699240708</v>
+      </c>
+      <c r="M4">
+        <v>11.94090107251472</v>
+      </c>
+      <c r="N4">
+        <v>17.92718469627861</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>15.09655234071274</v>
+      </c>
+      <c r="C5">
+        <v>5.564313232243929</v>
+      </c>
+      <c r="D5">
+        <v>8.62561495840454</v>
+      </c>
+      <c r="E5">
+        <v>8.071144692291178</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>49.79836041035173</v>
+      </c>
+      <c r="H5">
+        <v>15.90411224828387</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>5.019493767143365</v>
+      </c>
+      <c r="K5">
+        <v>11.54034567126648</v>
+      </c>
+      <c r="L5">
+        <v>7.339496403890101</v>
+      </c>
+      <c r="M5">
+        <v>11.88126751141406</v>
+      </c>
+      <c r="N5">
+        <v>17.97069377430774</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>15.06442768841859</v>
+      </c>
+      <c r="C6">
+        <v>5.552135228913614</v>
+      </c>
+      <c r="D6">
+        <v>8.619266172030299</v>
+      </c>
+      <c r="E6">
+        <v>8.071809802553393</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>49.76927435760496</v>
+      </c>
+      <c r="H6">
+        <v>15.90291441162777</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>5.019644029210299</v>
+      </c>
+      <c r="K6">
+        <v>11.51644868705229</v>
+      </c>
+      <c r="L6">
+        <v>7.337753395452523</v>
+      </c>
+      <c r="M6">
+        <v>11.87143211014522</v>
+      </c>
+      <c r="N6">
+        <v>17.97798281609104</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>15.28684394906085</v>
+      </c>
+      <c r="C7">
+        <v>5.636118526218086</v>
+      </c>
+      <c r="D7">
+        <v>8.663653742504247</v>
+      </c>
+      <c r="E7">
+        <v>8.067426378649014</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>49.97369286130613</v>
+      </c>
+      <c r="H7">
+        <v>15.91191909692133</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>5.018617193691114</v>
+      </c>
+      <c r="K7">
+        <v>11.68194177322719</v>
+      </c>
+      <c r="L7">
+        <v>7.350121543602242</v>
+      </c>
+      <c r="M7">
+        <v>11.94009239222489</v>
+      </c>
+      <c r="N7">
+        <v>17.92776715201619</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>16.25240645840163</v>
+      </c>
+      <c r="C8">
+        <v>5.992996457597976</v>
+      </c>
+      <c r="D8">
+        <v>8.86728829520821</v>
+      </c>
+      <c r="E8">
+        <v>8.053937207248449</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>50.93888204539387</v>
+      </c>
+      <c r="H8">
+        <v>15.96916487311814</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>5.014490981341107</v>
+      </c>
+      <c r="K8">
+        <v>12.4014084039624</v>
+      </c>
+      <c r="L8">
+        <v>7.411439760071159</v>
+      </c>
+      <c r="M8">
+        <v>12.25243424522567</v>
+      </c>
+      <c r="N8">
+        <v>17.7156072046145</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>18.07321047639572</v>
+      </c>
+      <c r="C9">
+        <v>6.642028426449357</v>
+      </c>
+      <c r="D9">
+        <v>9.29294630507072</v>
+      </c>
+      <c r="E9">
+        <v>8.049361721727784</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>53.06284942428602</v>
+      </c>
+      <c r="H9">
+        <v>16.14848712970299</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>5.007913560345383</v>
+      </c>
+      <c r="K9">
+        <v>13.76177059271912</v>
+      </c>
+      <c r="L9">
+        <v>7.556492035845162</v>
+      </c>
+      <c r="M9">
+        <v>12.89536584236131</v>
+      </c>
+      <c r="N9">
+        <v>17.33428190541228</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>19.35636095326575</v>
+      </c>
+      <c r="C10">
+        <v>7.087328327850845</v>
+      </c>
+      <c r="D10">
+        <v>9.620363983968677</v>
+      </c>
+      <c r="E10">
+        <v>8.060152401434696</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>54.76784888267668</v>
+      </c>
+      <c r="H10">
+        <v>16.32500503604912</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>5.004067588186396</v>
+      </c>
+      <c r="K10">
+        <v>14.72263337932306</v>
+      </c>
+      <c r="L10">
+        <v>7.678701330405363</v>
+      </c>
+      <c r="M10">
+        <v>13.38357510754638</v>
+      </c>
+      <c r="N10">
+        <v>17.07625505785447</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>19.9267833694521</v>
+      </c>
+      <c r="C11">
+        <v>7.283085097538423</v>
+      </c>
+      <c r="D11">
+        <v>9.772243294257791</v>
+      </c>
+      <c r="E11">
+        <v>8.068321270947475</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>55.57565616813409</v>
+      </c>
+      <c r="H11">
+        <v>16.41588979447636</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>5.002548495597415</v>
+      </c>
+      <c r="K11">
+        <v>15.15025602836304</v>
+      </c>
+      <c r="L11">
+        <v>7.737803174188342</v>
+      </c>
+      <c r="M11">
+        <v>13.60861166183318</v>
+      </c>
+      <c r="N11">
+        <v>16.96394874249545</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>20.14079721345211</v>
+      </c>
+      <c r="C12">
+        <v>7.356244140083942</v>
+      </c>
+      <c r="D12">
+        <v>9.830159346158752</v>
+      </c>
+      <c r="E12">
+        <v>8.071899650726692</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>55.8862514143368</v>
+      </c>
+      <c r="H12">
+        <v>16.45190067659966</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>5.002007967948943</v>
+      </c>
+      <c r="K12">
+        <v>15.31076130493641</v>
+      </c>
+      <c r="L12">
+        <v>7.760697013219872</v>
+      </c>
+      <c r="M12">
+        <v>13.6942152294432</v>
+      </c>
+      <c r="N12">
+        <v>16.92217855809388</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>20.09479511251874</v>
+      </c>
+      <c r="C13">
+        <v>7.34053093743533</v>
+      </c>
+      <c r="D13">
+        <v>9.817668451002158</v>
+      </c>
+      <c r="E13">
+        <v>8.071107144821561</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>55.81914908476963</v>
+      </c>
+      <c r="H13">
+        <v>16.44407297572987</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>5.002122808833222</v>
+      </c>
+      <c r="K13">
+        <v>15.27625781227455</v>
+      </c>
+      <c r="L13">
+        <v>7.755743441545802</v>
+      </c>
+      <c r="M13">
+        <v>13.67576226888085</v>
+      </c>
+      <c r="N13">
+        <v>16.93114030912827</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>19.94443071594953</v>
+      </c>
+      <c r="C14">
+        <v>7.289123292740088</v>
+      </c>
+      <c r="D14">
+        <v>9.777000111527089</v>
+      </c>
+      <c r="E14">
+        <v>8.068605850357724</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>55.60111447305849</v>
+      </c>
+      <c r="H14">
+        <v>16.41882004422004</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>5.002503320484241</v>
+      </c>
+      <c r="K14">
+        <v>15.1634897564193</v>
+      </c>
+      <c r="L14">
+        <v>7.739676325187085</v>
+      </c>
+      <c r="M14">
+        <v>13.61564674823235</v>
+      </c>
+      <c r="N14">
+        <v>16.96049691763576</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>19.85206675592819</v>
+      </c>
+      <c r="C15">
+        <v>7.257508732423624</v>
+      </c>
+      <c r="D15">
+        <v>9.752141500269049</v>
+      </c>
+      <c r="E15">
+        <v>8.067137392541506</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>55.46817578484845</v>
+      </c>
+      <c r="H15">
+        <v>16.40356178273375</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>5.002740966582582</v>
+      </c>
+      <c r="K15">
+        <v>15.09422885754424</v>
+      </c>
+      <c r="L15">
+        <v>7.729901864411707</v>
+      </c>
+      <c r="M15">
+        <v>13.57887368735784</v>
+      </c>
+      <c r="N15">
+        <v>16.97857829741653</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>19.3188074096175</v>
+      </c>
+      <c r="C16">
+        <v>7.07439876977204</v>
+      </c>
+      <c r="D16">
+        <v>9.610495639584668</v>
+      </c>
+      <c r="E16">
+        <v>8.059685515241231</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>54.71570999181752</v>
+      </c>
+      <c r="H16">
+        <v>16.31928466291853</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>5.004171632629635</v>
+      </c>
+      <c r="K16">
+        <v>14.69449057799351</v>
+      </c>
+      <c r="L16">
+        <v>7.674910217165031</v>
+      </c>
+      <c r="M16">
+        <v>13.36892446872603</v>
+      </c>
+      <c r="N16">
+        <v>17.08369892556273</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>18.98819850450337</v>
+      </c>
+      <c r="C17">
+        <v>6.960326831625968</v>
+      </c>
+      <c r="D17">
+        <v>9.524337407087692</v>
+      </c>
+      <c r="E17">
+        <v>8.055960302351412</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>54.26238562201373</v>
+      </c>
+      <c r="H17">
+        <v>16.27034552279209</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>5.005109391264176</v>
+      </c>
+      <c r="K17">
+        <v>14.44678413608186</v>
+      </c>
+      <c r="L17">
+        <v>7.642079233657732</v>
+      </c>
+      <c r="M17">
+        <v>13.24085429347278</v>
+      </c>
+      <c r="N17">
+        <v>17.14950483861909</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>18.79679306427196</v>
+      </c>
+      <c r="C18">
+        <v>6.894073451723827</v>
+      </c>
+      <c r="D18">
+        <v>9.475058738438751</v>
+      </c>
+      <c r="E18">
+        <v>8.054123502231411</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>54.00467111460006</v>
+      </c>
+      <c r="H18">
+        <v>16.24318894345778</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>5.005670351843682</v>
+      </c>
+      <c r="K18">
+        <v>14.30342004030503</v>
+      </c>
+      <c r="L18">
+        <v>7.623525382198816</v>
+      </c>
+      <c r="M18">
+        <v>13.16747101430786</v>
+      </c>
+      <c r="N18">
+        <v>17.18783004246808</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>18.73177512684574</v>
+      </c>
+      <c r="C19">
+        <v>6.871530701923048</v>
+      </c>
+      <c r="D19">
+        <v>9.458422097192514</v>
+      </c>
+      <c r="E19">
+        <v>8.053553641761647</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>53.91793126342043</v>
+      </c>
+      <c r="H19">
+        <v>16.23416238531927</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>5.005863945899548</v>
+      </c>
+      <c r="K19">
+        <v>14.25472887997997</v>
+      </c>
+      <c r="L19">
+        <v>7.617299728401599</v>
+      </c>
+      <c r="M19">
+        <v>13.1426738884441</v>
+      </c>
+      <c r="N19">
+        <v>17.2008871484337</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>19.02352223281859</v>
+      </c>
+      <c r="C20">
+        <v>6.972536400922745</v>
+      </c>
+      <c r="D20">
+        <v>9.533480553819153</v>
+      </c>
+      <c r="E20">
+        <v>8.056325089201941</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>54.31032919083728</v>
+      </c>
+      <c r="H20">
+        <v>16.27545200043978</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>5.00500732028442</v>
+      </c>
+      <c r="K20">
+        <v>14.47324554123519</v>
+      </c>
+      <c r="L20">
+        <v>7.645539967473749</v>
+      </c>
+      <c r="M20">
+        <v>13.25445896237754</v>
+      </c>
+      <c r="N20">
+        <v>17.14245029409762</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>19.98865096878647</v>
+      </c>
+      <c r="C21">
+        <v>7.304249173533221</v>
+      </c>
+      <c r="D21">
+        <v>9.788934597893279</v>
+      </c>
+      <c r="E21">
+        <v>8.069327244945605</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>55.66502846611844</v>
+      </c>
+      <c r="H21">
+        <v>16.42619356853208</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>5.002390599147125</v>
+      </c>
+      <c r="K21">
+        <v>15.19665156282915</v>
+      </c>
+      <c r="L21">
+        <v>7.744381624059074</v>
+      </c>
+      <c r="M21">
+        <v>13.63329388880458</v>
+      </c>
+      <c r="N21">
+        <v>16.95185335422032</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>20.60778622284316</v>
+      </c>
+      <c r="C22">
+        <v>7.515399099324293</v>
+      </c>
+      <c r="D22">
+        <v>9.958229260551644</v>
+      </c>
+      <c r="E22">
+        <v>8.080660036132638</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>56.57781846906672</v>
+      </c>
+      <c r="H22">
+        <v>16.53404330762384</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>5.000883671760718</v>
+      </c>
+      <c r="K22">
+        <v>15.66111323097251</v>
+      </c>
+      <c r="L22">
+        <v>7.811976598023527</v>
+      </c>
+      <c r="M22">
+        <v>13.88312853653164</v>
+      </c>
+      <c r="N22">
+        <v>16.83172078297709</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>20.27842570990172</v>
+      </c>
+      <c r="C23">
+        <v>7.403215860488046</v>
+      </c>
+      <c r="D23">
+        <v>9.86766479441861</v>
+      </c>
+      <c r="E23">
+        <v>8.074346519649994</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>56.08811052652008</v>
+      </c>
+      <c r="H23">
+        <v>16.47560334743313</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>5.00166877577194</v>
+      </c>
+      <c r="K23">
+        <v>15.41399811781444</v>
+      </c>
+      <c r="L23">
+        <v>7.775622649339212</v>
+      </c>
+      <c r="M23">
+        <v>13.74959216612873</v>
+      </c>
+      <c r="N23">
+        <v>16.8954214857611</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>19.00755652373327</v>
+      </c>
+      <c r="C24">
+        <v>6.967018548133708</v>
+      </c>
+      <c r="D24">
+        <v>9.529346141863968</v>
+      </c>
+      <c r="E24">
+        <v>8.056159220666339</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>54.28864485130245</v>
+      </c>
+      <c r="H24">
+        <v>16.27314031741205</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>5.005053398693724</v>
+      </c>
+      <c r="K24">
+        <v>14.46128530753767</v>
+      </c>
+      <c r="L24">
+        <v>7.64397437015704</v>
+      </c>
+      <c r="M24">
+        <v>13.24830752254588</v>
+      </c>
+      <c r="N24">
+        <v>17.14563812172333</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>17.58961408413861</v>
+      </c>
+      <c r="C25">
+        <v>6.471973717456317</v>
+      </c>
+      <c r="D25">
+        <v>9.175119575405194</v>
+      </c>
+      <c r="E25">
+        <v>8.048175126969575</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>52.46312475266856</v>
+      </c>
+      <c r="H25">
+        <v>16.0923986140627</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>5.00952472839447</v>
+      </c>
+      <c r="K25">
+        <v>13.40007109500924</v>
+      </c>
+      <c r="L25">
+        <v>7.514541476411527</v>
+      </c>
+      <c r="M25">
+        <v>12.71846680689619</v>
+      </c>
+      <c r="N25">
+        <v>17.43363411283957</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_24/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.50957435940595</v>
+        <v>20.75921928337546</v>
       </c>
       <c r="C2">
-        <v>6.086292438411947</v>
+        <v>5.026124265168812</v>
       </c>
       <c r="D2">
-        <v>8.924296870357406</v>
+        <v>13.55037017520021</v>
       </c>
       <c r="E2">
-        <v>8.051733591446938</v>
+        <v>13.62159553492157</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>51.21590521668583</v>
+        <v>67.81168018883096</v>
       </c>
       <c r="H2">
-        <v>15.98907176549586</v>
+        <v>24.08555380105708</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.013473343875296</v>
+        <v>8.311535738884389</v>
       </c>
       <c r="K2">
-        <v>12.59328109117454</v>
+        <v>16.36618823416302</v>
       </c>
       <c r="L2">
-        <v>7.429712846063322</v>
+        <v>12.57644374224787</v>
       </c>
       <c r="M2">
-        <v>12.33922778908723</v>
+        <v>19.53977315126451</v>
       </c>
       <c r="N2">
-        <v>17.66044212548578</v>
+        <v>26.16797549182537</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.75852334528596</v>
+        <v>20.66871965249276</v>
       </c>
       <c r="C3">
-        <v>5.811879720386804</v>
+        <v>4.915149957352502</v>
       </c>
       <c r="D3">
-        <v>8.760994522574213</v>
+        <v>13.55478957553749</v>
       </c>
       <c r="E3">
-        <v>8.059762767045637</v>
+        <v>13.64418459480357</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>50.42992106104326</v>
+        <v>67.79503116842854</v>
       </c>
       <c r="H3">
-        <v>15.93632133784889</v>
+        <v>24.11951767727522</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.01653799156591</v>
+        <v>8.313027636936582</v>
       </c>
       <c r="K3">
-        <v>12.0332068452935</v>
+        <v>16.30584594711877</v>
       </c>
       <c r="L3">
-        <v>7.3785847169364</v>
+        <v>12.593853693817</v>
       </c>
       <c r="M3">
-        <v>12.08989096294196</v>
+        <v>19.54719799014584</v>
       </c>
       <c r="N3">
-        <v>17.82304405761464</v>
+        <v>26.21839251963568</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.28943865287948</v>
+        <v>20.61766586050066</v>
       </c>
       <c r="C4">
-        <v>5.637093823396596</v>
+        <v>4.844700097549159</v>
       </c>
       <c r="D4">
-        <v>8.664177448314025</v>
+        <v>13.55967803221928</v>
       </c>
       <c r="E4">
-        <v>8.067378251925446</v>
+        <v>13.65933404124704</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>49.97611910078684</v>
+        <v>67.79715272644356</v>
       </c>
       <c r="H4">
-        <v>15.91203384918388</v>
+        <v>24.14356877746898</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.018605397596543</v>
+        <v>8.31401435598746</v>
       </c>
       <c r="K4">
-        <v>11.68387297405556</v>
+        <v>16.27229001793161</v>
       </c>
       <c r="L4">
-        <v>7.3502699240708</v>
+        <v>12.60607095595971</v>
       </c>
       <c r="M4">
-        <v>11.94090107251472</v>
+        <v>19.55483893966151</v>
       </c>
       <c r="N4">
-        <v>17.92718469627861</v>
+        <v>26.25126866315533</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.09655234071274</v>
+        <v>20.59801264618386</v>
       </c>
       <c r="C5">
-        <v>5.564313232243929</v>
+        <v>4.815428077898314</v>
       </c>
       <c r="D5">
-        <v>8.62561495840454</v>
+        <v>13.56221769196501</v>
       </c>
       <c r="E5">
-        <v>8.071144692291178</v>
+        <v>13.66582984658823</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>49.79836041035173</v>
+        <v>67.80112267993186</v>
       </c>
       <c r="H5">
-        <v>15.90411224828387</v>
+        <v>24.15417354632561</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.019493767143365</v>
+        <v>8.314434264180399</v>
       </c>
       <c r="K5">
-        <v>11.54034567126648</v>
+        <v>16.25950502840369</v>
       </c>
       <c r="L5">
-        <v>7.339496403890101</v>
+        <v>12.61143407375395</v>
       </c>
       <c r="M5">
-        <v>11.88126751141406</v>
+        <v>19.55872889218459</v>
       </c>
       <c r="N5">
-        <v>17.97069377430774</v>
+        <v>26.26514934478741</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.06442768841859</v>
+        <v>20.5948192582959</v>
       </c>
       <c r="C6">
-        <v>5.552135228913614</v>
+        <v>4.810534019304832</v>
       </c>
       <c r="D6">
-        <v>8.619266172030299</v>
+        <v>13.56267248882314</v>
       </c>
       <c r="E6">
-        <v>8.071809802553393</v>
+        <v>13.6669279497702</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>49.76927435760496</v>
+        <v>67.80196945718319</v>
       </c>
       <c r="H6">
-        <v>15.90291441162777</v>
+        <v>24.1559829972378</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.019644029210299</v>
+        <v>8.31450506652571</v>
       </c>
       <c r="K6">
-        <v>11.51644868705229</v>
+        <v>16.25743609301742</v>
       </c>
       <c r="L6">
-        <v>7.337753395452523</v>
+        <v>12.61234784798184</v>
       </c>
       <c r="M6">
-        <v>11.87143211014522</v>
+        <v>19.55942172688246</v>
       </c>
       <c r="N6">
-        <v>17.97798281609104</v>
+        <v>26.26748343502042</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.28684394906085</v>
+        <v>20.61739612659347</v>
       </c>
       <c r="C7">
-        <v>5.636118526218086</v>
+        <v>4.844307580258447</v>
       </c>
       <c r="D7">
-        <v>8.663653742504247</v>
+        <v>13.55971006509129</v>
       </c>
       <c r="E7">
-        <v>8.067426378649014</v>
+        <v>13.65942034037708</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>49.97369286130613</v>
+        <v>67.79719369238479</v>
       </c>
       <c r="H7">
-        <v>15.91191909692133</v>
+        <v>24.14370854310231</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.018617193691114</v>
+        <v>8.314019946844963</v>
       </c>
       <c r="K7">
-        <v>11.68194177322719</v>
+        <v>16.27211398103526</v>
       </c>
       <c r="L7">
-        <v>7.350121543602242</v>
+        <v>12.60614172759288</v>
       </c>
       <c r="M7">
-        <v>11.94009239222489</v>
+        <v>19.55488825671304</v>
       </c>
       <c r="N7">
-        <v>17.92776715201619</v>
+        <v>26.2514539048811</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.25240645840163</v>
+        <v>20.72708873767442</v>
       </c>
       <c r="C8">
-        <v>5.992996457597976</v>
+        <v>4.988350468543258</v>
       </c>
       <c r="D8">
-        <v>8.86728829520821</v>
+        <v>13.55144302928529</v>
       </c>
       <c r="E8">
-        <v>8.053937207248449</v>
+        <v>13.62911894755931</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>50.93888204539387</v>
+        <v>67.80337882286192</v>
       </c>
       <c r="H8">
-        <v>15.96916487311814</v>
+        <v>24.09660088130286</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.014490981341107</v>
+        <v>8.312035496393765</v>
       </c>
       <c r="K8">
-        <v>12.4014084039624</v>
+        <v>16.34466361123498</v>
       </c>
       <c r="L8">
-        <v>7.411439760071159</v>
+        <v>12.58212990493362</v>
       </c>
       <c r="M8">
-        <v>12.25243424522567</v>
+        <v>19.5416943322914</v>
       </c>
       <c r="N8">
-        <v>17.7156072046145</v>
+        <v>26.18496118101341</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.07321047639572</v>
+        <v>20.97720517728469</v>
       </c>
       <c r="C9">
-        <v>6.642028426449357</v>
+        <v>5.25174870322224</v>
       </c>
       <c r="D9">
-        <v>9.29294630507072</v>
+        <v>13.55245337240626</v>
       </c>
       <c r="E9">
-        <v>8.049361721727784</v>
+        <v>13.57982963860028</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>53.06284942428602</v>
+        <v>67.91334001766096</v>
       </c>
       <c r="H9">
-        <v>16.14848712970299</v>
+        <v>24.02959833805723</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.007913560345383</v>
+        <v>8.30870323134106</v>
       </c>
       <c r="K9">
-        <v>13.76177059271912</v>
+        <v>16.51414767920727</v>
       </c>
       <c r="L9">
-        <v>7.556492035845162</v>
+        <v>12.5471452299452</v>
       </c>
       <c r="M9">
-        <v>12.89536584236131</v>
+        <v>19.54021612691539</v>
       </c>
       <c r="N9">
-        <v>17.33428190541228</v>
+        <v>26.06977453488471</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.35636095326575</v>
+        <v>21.18114133985088</v>
       </c>
       <c r="C10">
-        <v>7.087328327850845</v>
+        <v>5.43274867819324</v>
       </c>
       <c r="D10">
-        <v>9.620363983968677</v>
+        <v>13.56363916554069</v>
       </c>
       <c r="E10">
-        <v>8.060152401434696</v>
+        <v>13.54976359821744</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>54.76784888267668</v>
+        <v>68.0535402252129</v>
       </c>
       <c r="H10">
-        <v>16.32500503604912</v>
+        <v>23.9958494387503</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.004067588186396</v>
+        <v>8.306593733030256</v>
       </c>
       <c r="K10">
-        <v>14.72263337932306</v>
+        <v>16.65450688900323</v>
       </c>
       <c r="L10">
-        <v>7.678701330405363</v>
+        <v>12.52879578877015</v>
       </c>
       <c r="M10">
-        <v>13.38357510754638</v>
+        <v>19.55391066447495</v>
       </c>
       <c r="N10">
-        <v>17.07625505785447</v>
+        <v>25.9943773676688</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.9267833694521</v>
+        <v>21.27802273260266</v>
       </c>
       <c r="C11">
-        <v>7.283085097538423</v>
+        <v>5.512206127245975</v>
       </c>
       <c r="D11">
-        <v>9.772243294257791</v>
+        <v>13.57098000991989</v>
       </c>
       <c r="E11">
-        <v>8.068321270947475</v>
+        <v>13.53741413319904</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>55.57565616813409</v>
+        <v>68.13014096485469</v>
       </c>
       <c r="H11">
-        <v>16.41588979447636</v>
+        <v>23.983857149044</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.002548495597415</v>
+        <v>8.305707155959539</v>
       </c>
       <c r="K11">
-        <v>15.15025602836304</v>
+        <v>16.72161991370907</v>
       </c>
       <c r="L11">
-        <v>7.737803174188342</v>
+        <v>12.52203917462886</v>
       </c>
       <c r="M11">
-        <v>13.60861166183318</v>
+        <v>19.56332569160606</v>
       </c>
       <c r="N11">
-        <v>16.96394874249545</v>
+        <v>25.9620734677167</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.14079721345211</v>
+        <v>21.31527522242205</v>
       </c>
       <c r="C12">
-        <v>7.356244140083942</v>
+        <v>5.541867951446088</v>
       </c>
       <c r="D12">
-        <v>9.830159346158752</v>
+        <v>13.57408200088203</v>
       </c>
       <c r="E12">
-        <v>8.071899650726692</v>
+        <v>13.53292811656857</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>55.8862514143368</v>
+        <v>68.16098179487715</v>
       </c>
       <c r="H12">
-        <v>16.45190067659966</v>
+        <v>23.97979897608284</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.002007967948943</v>
+        <v>8.305381900234748</v>
       </c>
       <c r="K12">
-        <v>15.31076130493641</v>
+        <v>16.74748662957059</v>
       </c>
       <c r="L12">
-        <v>7.760697013219872</v>
+        <v>12.51970879289895</v>
       </c>
       <c r="M12">
-        <v>13.6942152294432</v>
+        <v>19.56734640743417</v>
       </c>
       <c r="N12">
-        <v>16.92217855809388</v>
+        <v>25.95012709297317</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.09479511251874</v>
+        <v>21.30722749104892</v>
       </c>
       <c r="C13">
-        <v>7.34053093743533</v>
+        <v>5.535498929467793</v>
       </c>
       <c r="D13">
-        <v>9.817668451002158</v>
+        <v>13.57339963234627</v>
       </c>
       <c r="E13">
-        <v>8.071107144821561</v>
+        <v>13.53388579736597</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>55.81914908476963</v>
+        <v>68.15425829052684</v>
       </c>
       <c r="H13">
-        <v>16.44407297572987</v>
+        <v>23.98065149617788</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.002122808833222</v>
+        <v>8.305451484643445</v>
       </c>
       <c r="K13">
-        <v>15.27625781227455</v>
+        <v>16.7418959201759</v>
       </c>
       <c r="L13">
-        <v>7.755743441545802</v>
+        <v>12.52020054186219</v>
       </c>
       <c r="M13">
-        <v>13.67576226888085</v>
+        <v>19.56646026222936</v>
       </c>
       <c r="N13">
-        <v>16.93114030912827</v>
+        <v>25.95268722677095</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.94443071594953</v>
+        <v>21.28107633055743</v>
       </c>
       <c r="C14">
-        <v>7.289123292740088</v>
+        <v>5.514655050267341</v>
       </c>
       <c r="D14">
-        <v>9.777000111527089</v>
+        <v>13.57122876629695</v>
       </c>
       <c r="E14">
-        <v>8.068605850357724</v>
+        <v>13.53704125155364</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>55.60111447305849</v>
+        <v>68.13264157039769</v>
       </c>
       <c r="H14">
-        <v>16.41882004422004</v>
+        <v>23.98351360099647</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.002503320484241</v>
+        <v>8.305680187286779</v>
       </c>
       <c r="K14">
-        <v>15.1634897564193</v>
+        <v>16.72373901433767</v>
       </c>
       <c r="L14">
-        <v>7.739676325187085</v>
+        <v>12.52184288240866</v>
       </c>
       <c r="M14">
-        <v>13.61564674823235</v>
+        <v>19.56364736623418</v>
       </c>
       <c r="N14">
-        <v>16.96049691763576</v>
+        <v>25.96108489450504</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.85206675592819</v>
+        <v>21.26513087864866</v>
       </c>
       <c r="C15">
-        <v>7.257508732423624</v>
+        <v>5.501831604855577</v>
       </c>
       <c r="D15">
-        <v>9.752141500269049</v>
+        <v>13.56994095023167</v>
       </c>
       <c r="E15">
-        <v>8.067137392541506</v>
+        <v>13.53899884759688</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>55.46817578484845</v>
+        <v>68.11963919052937</v>
       </c>
       <c r="H15">
-        <v>16.40356178273375</v>
+        <v>23.98532962340921</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.002740966582582</v>
+        <v>8.305821637053281</v>
       </c>
       <c r="K15">
-        <v>15.09422885754424</v>
+        <v>16.71267580067325</v>
       </c>
       <c r="L15">
-        <v>7.729901864411707</v>
+        <v>12.52287856553596</v>
       </c>
       <c r="M15">
-        <v>13.57887368735784</v>
+        <v>19.56198361765482</v>
       </c>
       <c r="N15">
-        <v>16.97857829741653</v>
+        <v>25.96626599554216</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.3188074096175</v>
+        <v>21.17489046656186</v>
       </c>
       <c r="C16">
-        <v>7.07439876977204</v>
+        <v>5.427496868187757</v>
       </c>
       <c r="D16">
-        <v>9.610495639584668</v>
+        <v>13.56320460542467</v>
       </c>
       <c r="E16">
-        <v>8.059685515241231</v>
+        <v>13.55059734220586</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>54.71570999181752</v>
+        <v>68.04879138839233</v>
       </c>
       <c r="H16">
-        <v>16.31928466291853</v>
+        <v>23.99670076930055</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.004171632629635</v>
+        <v>8.306653140027109</v>
       </c>
       <c r="K16">
-        <v>14.69449057799351</v>
+        <v>16.65018514029525</v>
       </c>
       <c r="L16">
-        <v>7.674910217165031</v>
+        <v>12.52926931268921</v>
       </c>
       <c r="M16">
-        <v>13.36892446872603</v>
+        <v>19.55335925117942</v>
       </c>
       <c r="N16">
-        <v>17.08369892556273</v>
+        <v>25.99652860492094</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.98819850450337</v>
+        <v>21.12056578594715</v>
       </c>
       <c r="C17">
-        <v>6.960326831625968</v>
+        <v>5.381147735325347</v>
       </c>
       <c r="D17">
-        <v>9.524337407087692</v>
+        <v>13.55964780455161</v>
       </c>
       <c r="E17">
-        <v>8.055960302351412</v>
+        <v>13.55805237471468</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>54.26238562201373</v>
+        <v>68.00860613182373</v>
       </c>
       <c r="H17">
-        <v>16.27034552279209</v>
+        <v>24.00453716532804</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.005109391264176</v>
+        <v>8.307181925720073</v>
       </c>
       <c r="K17">
-        <v>14.44678413608186</v>
+        <v>16.61267319565287</v>
       </c>
       <c r="L17">
-        <v>7.642079233657732</v>
+        <v>12.53359686519898</v>
       </c>
       <c r="M17">
-        <v>13.24085429347278</v>
+        <v>19.54888255456486</v>
       </c>
       <c r="N17">
-        <v>17.14950483861909</v>
+        <v>26.01560431127338</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.79679306427196</v>
+        <v>21.08970808778128</v>
       </c>
       <c r="C18">
-        <v>6.894073451723827</v>
+        <v>5.354218522388245</v>
       </c>
       <c r="D18">
-        <v>9.475058738438751</v>
+        <v>13.55781414583511</v>
       </c>
       <c r="E18">
-        <v>8.054123502231411</v>
+        <v>13.56246531256125</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>54.00467111460006</v>
+        <v>67.98670030270098</v>
       </c>
       <c r="H18">
-        <v>16.24318894345778</v>
+        <v>24.00936075180843</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.005670351843682</v>
+        <v>8.307492946422546</v>
       </c>
       <c r="K18">
-        <v>14.30342004030503</v>
+        <v>16.59140549084307</v>
       </c>
       <c r="L18">
-        <v>7.623525382198816</v>
+        <v>12.5362357116557</v>
       </c>
       <c r="M18">
-        <v>13.16747101430786</v>
+        <v>19.54660766581393</v>
       </c>
       <c r="N18">
-        <v>17.18783004246808</v>
+        <v>26.02676392267142</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.73177512684574</v>
+        <v>21.079327669755</v>
       </c>
       <c r="C19">
-        <v>6.871530701923048</v>
+        <v>5.345054716967768</v>
       </c>
       <c r="D19">
-        <v>9.458422097192514</v>
+        <v>13.5572297811799</v>
       </c>
       <c r="E19">
-        <v>8.053553641761647</v>
+        <v>13.56398094058197</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>53.91793126342043</v>
+        <v>67.97949106565488</v>
       </c>
       <c r="H19">
-        <v>16.23416238531927</v>
+        <v>24.01104826290351</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.005863945899548</v>
+        <v>8.30759943482529</v>
       </c>
       <c r="K19">
-        <v>14.25472887997997</v>
+        <v>16.5842580377824</v>
       </c>
       <c r="L19">
-        <v>7.617299728401599</v>
+        <v>12.5371549154009</v>
       </c>
       <c r="M19">
-        <v>13.1426738884441</v>
+        <v>19.54588902567471</v>
       </c>
       <c r="N19">
-        <v>17.2008871484337</v>
+        <v>26.0305746379772</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.02352223281859</v>
+        <v>21.12630872141963</v>
       </c>
       <c r="C20">
-        <v>6.972536400922745</v>
+        <v>5.386109763025141</v>
       </c>
       <c r="D20">
-        <v>9.533480553819153</v>
+        <v>13.56000449035376</v>
       </c>
       <c r="E20">
-        <v>8.056325089201941</v>
+        <v>13.55724584008611</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>54.31032919083728</v>
+        <v>68.01275900006482</v>
       </c>
       <c r="H20">
-        <v>16.27545200043978</v>
+        <v>24.00367023259061</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.00500732028442</v>
+        <v>8.307124924053602</v>
       </c>
       <c r="K20">
-        <v>14.47324554123519</v>
+        <v>16.61663463016237</v>
       </c>
       <c r="L20">
-        <v>7.645539967473749</v>
+        <v>12.53312069471557</v>
       </c>
       <c r="M20">
-        <v>13.25445896237754</v>
+        <v>19.54932807680067</v>
       </c>
       <c r="N20">
-        <v>17.14245029409762</v>
+        <v>26.01355423935192</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.98865096878647</v>
+        <v>21.28874241694648</v>
       </c>
       <c r="C21">
-        <v>7.304249173533221</v>
+        <v>5.520789087755329</v>
       </c>
       <c r="D21">
-        <v>9.788934597893279</v>
+        <v>13.57185767326462</v>
       </c>
       <c r="E21">
-        <v>8.069327244945605</v>
+        <v>13.53610925295734</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>55.66502846611844</v>
+        <v>68.13894124531176</v>
       </c>
       <c r="H21">
-        <v>16.42619356853208</v>
+        <v>23.98265982343332</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.002390599147125</v>
+        <v>8.305612727827857</v>
       </c>
       <c r="K21">
-        <v>15.19665156282915</v>
+        <v>16.72905999489</v>
       </c>
       <c r="L21">
-        <v>7.744381624059074</v>
+        <v>12.52135429828819</v>
       </c>
       <c r="M21">
-        <v>13.63329388880458</v>
+        <v>19.56446124319553</v>
       </c>
       <c r="N21">
-        <v>16.95185335422032</v>
+        <v>25.95861052605591</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.60778622284316</v>
+        <v>21.39818659172687</v>
       </c>
       <c r="C22">
-        <v>7.515399099324293</v>
+        <v>5.606315826341499</v>
       </c>
       <c r="D22">
-        <v>9.958229260551644</v>
+        <v>13.58148134590024</v>
       </c>
       <c r="E22">
-        <v>8.080660036132638</v>
+        <v>13.52340518387565</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>56.57781846906672</v>
+        <v>68.23209153758238</v>
       </c>
       <c r="H22">
-        <v>16.53404330762384</v>
+        <v>23.97174372591945</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.000883671760718</v>
+        <v>8.304685443173275</v>
       </c>
       <c r="K22">
-        <v>15.66111323097251</v>
+        <v>16.80516553489798</v>
       </c>
       <c r="L22">
-        <v>7.811976598023527</v>
+        <v>12.51499413549603</v>
       </c>
       <c r="M22">
-        <v>13.88312853653164</v>
+        <v>19.57700496002814</v>
       </c>
       <c r="N22">
-        <v>16.83172078297709</v>
+        <v>25.92437087428498</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.27842570990172</v>
+        <v>21.33948228750187</v>
       </c>
       <c r="C23">
-        <v>7.403215860488046</v>
+        <v>5.560900744598149</v>
       </c>
       <c r="D23">
-        <v>9.86766479441861</v>
+        <v>13.57617388919993</v>
       </c>
       <c r="E23">
-        <v>8.074346519649994</v>
+        <v>13.53008418359257</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>56.08811052652008</v>
+        <v>68.1814017545579</v>
       </c>
       <c r="H23">
-        <v>16.47560334743313</v>
+        <v>23.97731232017041</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.00166877577194</v>
+        <v>8.305174779264389</v>
       </c>
       <c r="K23">
-        <v>15.41399811781444</v>
+        <v>16.76431173492301</v>
       </c>
       <c r="L23">
-        <v>7.775622649339212</v>
+        <v>12.51826717783812</v>
       </c>
       <c r="M23">
-        <v>13.74959216612873</v>
+        <v>19.57006828892349</v>
       </c>
       <c r="N23">
-        <v>16.8954214857611</v>
+        <v>25.94249261877776</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.00755652373327</v>
+        <v>21.12371117248705</v>
       </c>
       <c r="C24">
-        <v>6.967018548133708</v>
+        <v>5.383867309232379</v>
       </c>
       <c r="D24">
-        <v>9.529346141863968</v>
+        <v>13.55984257473886</v>
       </c>
       <c r="E24">
-        <v>8.056159220666339</v>
+        <v>13.5576100789524</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>54.28864485130245</v>
+        <v>68.01087775819754</v>
       </c>
       <c r="H24">
-        <v>16.27314031741205</v>
+        <v>24.0040611811973</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.005053398693724</v>
+        <v>8.307150672656055</v>
       </c>
       <c r="K24">
-        <v>14.46128530753767</v>
+        <v>16.61484273480974</v>
       </c>
       <c r="L24">
-        <v>7.64397437015704</v>
+        <v>12.53333550137509</v>
       </c>
       <c r="M24">
-        <v>13.24830752254588</v>
+        <v>19.54912572517748</v>
       </c>
       <c r="N24">
-        <v>17.14563812172333</v>
+        <v>26.01448047641751</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.58961408413861</v>
+        <v>20.90590922956817</v>
       </c>
       <c r="C25">
-        <v>6.471973717456317</v>
+        <v>5.182630774208008</v>
       </c>
       <c r="D25">
-        <v>9.175119575405194</v>
+        <v>13.550341288954</v>
       </c>
       <c r="E25">
-        <v>8.048175126969575</v>
+        <v>13.59208209304224</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>52.46312475266856</v>
+        <v>67.87313638124971</v>
       </c>
       <c r="H25">
-        <v>16.0923986140627</v>
+        <v>24.04500644756627</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.00952472839447</v>
+        <v>8.309545057141449</v>
       </c>
       <c r="K25">
-        <v>13.40007109500924</v>
+        <v>16.46545802366552</v>
       </c>
       <c r="L25">
-        <v>7.514541476411527</v>
+        <v>12.55531621353394</v>
       </c>
       <c r="M25">
-        <v>12.71846680689619</v>
+        <v>19.53801278059839</v>
       </c>
       <c r="N25">
-        <v>17.43363411283957</v>
+        <v>26.09931184085578</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_24/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.75921928337546</v>
+        <v>16.50957435940589</v>
       </c>
       <c r="C2">
-        <v>5.026124265168812</v>
+        <v>6.086292438411849</v>
       </c>
       <c r="D2">
-        <v>13.55037017520021</v>
+        <v>8.92429687035732</v>
       </c>
       <c r="E2">
-        <v>13.62159553492157</v>
+        <v>8.051733591446887</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>67.81168018883096</v>
+        <v>51.21590521668575</v>
       </c>
       <c r="H2">
-        <v>24.08555380105708</v>
+        <v>15.98907176549578</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.311535738884389</v>
+        <v>5.013473343875328</v>
       </c>
       <c r="K2">
-        <v>16.36618823416302</v>
+        <v>12.59328109117452</v>
       </c>
       <c r="L2">
-        <v>12.57644374224787</v>
+        <v>7.429712846063268</v>
       </c>
       <c r="M2">
-        <v>19.53977315126451</v>
+        <v>12.33922778908719</v>
       </c>
       <c r="N2">
-        <v>26.16797549182537</v>
+        <v>17.6604421254857</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.66871965249276</v>
+        <v>15.75852334528594</v>
       </c>
       <c r="C3">
-        <v>4.915149957352502</v>
+        <v>5.811879720387043</v>
       </c>
       <c r="D3">
-        <v>13.55478957553749</v>
+        <v>8.760994522574354</v>
       </c>
       <c r="E3">
-        <v>13.64418459480357</v>
+        <v>8.059762767045639</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>67.79503116842854</v>
+        <v>50.42992106104312</v>
       </c>
       <c r="H3">
-        <v>24.11951767727522</v>
+        <v>15.93632133784875</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.313027636936582</v>
+        <v>5.016537991565877</v>
       </c>
       <c r="K3">
-        <v>16.30584594711877</v>
+        <v>12.03320684529348</v>
       </c>
       <c r="L3">
-        <v>12.593853693817</v>
+        <v>7.378584716936412</v>
       </c>
       <c r="M3">
-        <v>19.54719799014584</v>
+        <v>12.08989096294193</v>
       </c>
       <c r="N3">
-        <v>26.21839251963568</v>
+        <v>17.82304405761453</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.61766586050066</v>
+        <v>15.28943865287949</v>
       </c>
       <c r="C4">
-        <v>4.844700097549159</v>
+        <v>5.637093823396701</v>
       </c>
       <c r="D4">
-        <v>13.55967803221928</v>
+        <v>8.664177448314168</v>
       </c>
       <c r="E4">
-        <v>13.65933404124704</v>
+        <v>8.067378251925563</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>67.79715272644356</v>
+        <v>49.97611910078682</v>
       </c>
       <c r="H4">
-        <v>24.14356877746898</v>
+        <v>15.91203384918394</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.31401435598746</v>
+        <v>5.018605397596543</v>
       </c>
       <c r="K4">
-        <v>16.27229001793161</v>
+        <v>11.68387297405555</v>
       </c>
       <c r="L4">
-        <v>12.60607095595971</v>
+        <v>7.350269924070907</v>
       </c>
       <c r="M4">
-        <v>19.55483893966151</v>
+        <v>11.94090107251475</v>
       </c>
       <c r="N4">
-        <v>26.25126866315533</v>
+        <v>17.92718469627864</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.59801264618386</v>
+        <v>15.09655234071284</v>
       </c>
       <c r="C5">
-        <v>4.815428077898314</v>
+        <v>5.564313232244176</v>
       </c>
       <c r="D5">
-        <v>13.56221769196501</v>
+        <v>8.625614958404574</v>
       </c>
       <c r="E5">
-        <v>13.66582984658823</v>
+        <v>8.071144692291288</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>67.80112267993186</v>
+        <v>49.79836041035185</v>
       </c>
       <c r="H5">
-        <v>24.15417354632561</v>
+        <v>15.90411224828394</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.314434264180399</v>
+        <v>5.019493767143432</v>
       </c>
       <c r="K5">
-        <v>16.25950502840369</v>
+        <v>11.54034567126651</v>
       </c>
       <c r="L5">
-        <v>12.61143407375395</v>
+        <v>7.339496403890158</v>
       </c>
       <c r="M5">
-        <v>19.55872889218459</v>
+        <v>11.88126751141413</v>
       </c>
       <c r="N5">
-        <v>26.26514934478741</v>
+        <v>17.97069377430778</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.5948192582959</v>
+        <v>15.06442768841856</v>
       </c>
       <c r="C6">
-        <v>4.810534019304832</v>
+        <v>5.552135228913594</v>
       </c>
       <c r="D6">
-        <v>13.56267248882314</v>
+        <v>8.619266172030093</v>
       </c>
       <c r="E6">
-        <v>13.6669279497702</v>
+        <v>8.07180980255321</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>67.80196945718319</v>
+        <v>49.76927435760481</v>
       </c>
       <c r="H6">
-        <v>24.1559829972378</v>
+        <v>15.90291441162766</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.31450506652571</v>
+        <v>5.019644029210331</v>
       </c>
       <c r="K6">
-        <v>16.25743609301742</v>
+        <v>11.51644868705226</v>
       </c>
       <c r="L6">
-        <v>12.61234784798184</v>
+        <v>7.337753395452437</v>
       </c>
       <c r="M6">
-        <v>19.55942172688246</v>
+        <v>11.87143211014513</v>
       </c>
       <c r="N6">
-        <v>26.26748343502042</v>
+        <v>17.97798281609104</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.61739612659347</v>
+        <v>15.2868439490608</v>
       </c>
       <c r="C7">
-        <v>4.844307580258447</v>
+        <v>5.636118526218092</v>
       </c>
       <c r="D7">
-        <v>13.55971006509129</v>
+        <v>8.663653742504284</v>
       </c>
       <c r="E7">
-        <v>13.65942034037708</v>
+        <v>8.067426378649074</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>67.79719369238479</v>
+        <v>49.97369286130567</v>
       </c>
       <c r="H7">
-        <v>24.14370854310231</v>
+        <v>15.9119190969212</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.314019946844963</v>
+        <v>5.018617193691183</v>
       </c>
       <c r="K7">
-        <v>16.27211398103526</v>
+        <v>11.68194177322715</v>
       </c>
       <c r="L7">
-        <v>12.60614172759288</v>
+        <v>7.350121543602326</v>
       </c>
       <c r="M7">
-        <v>19.55488825671304</v>
+        <v>11.94009239222488</v>
       </c>
       <c r="N7">
-        <v>26.2514539048811</v>
+        <v>17.92776715201602</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.72708873767442</v>
+        <v>16.25240645840159</v>
       </c>
       <c r="C8">
-        <v>4.988350468543258</v>
+        <v>5.99299645759798</v>
       </c>
       <c r="D8">
-        <v>13.55144302928529</v>
+        <v>8.867288295208208</v>
       </c>
       <c r="E8">
-        <v>13.62911894755931</v>
+        <v>8.053937207248444</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>67.80337882286192</v>
+        <v>50.93888204539381</v>
       </c>
       <c r="H8">
-        <v>24.09660088130286</v>
+        <v>15.9691648731181</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.312035496393765</v>
+        <v>5.014490981341142</v>
       </c>
       <c r="K8">
-        <v>16.34466361123498</v>
+        <v>12.40140840396238</v>
       </c>
       <c r="L8">
-        <v>12.58212990493362</v>
+        <v>7.411439760071212</v>
       </c>
       <c r="M8">
-        <v>19.5416943322914</v>
+        <v>12.25243424522565</v>
       </c>
       <c r="N8">
-        <v>26.18496118101341</v>
+        <v>17.71560720461444</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.97720517728469</v>
+        <v>18.07321047639567</v>
       </c>
       <c r="C9">
-        <v>5.25174870322224</v>
+        <v>6.642028426449473</v>
       </c>
       <c r="D9">
-        <v>13.55245337240626</v>
+        <v>9.292946305070791</v>
       </c>
       <c r="E9">
-        <v>13.57982963860028</v>
+        <v>8.049361721727836</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>67.91334001766096</v>
+        <v>53.06284942428572</v>
       </c>
       <c r="H9">
-        <v>24.02959833805723</v>
+        <v>16.14848712970299</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.30870323134106</v>
+        <v>5.007913560345383</v>
       </c>
       <c r="K9">
-        <v>16.51414767920727</v>
+        <v>13.76177059271908</v>
       </c>
       <c r="L9">
-        <v>12.5471452299452</v>
+        <v>7.556492035845183</v>
       </c>
       <c r="M9">
-        <v>19.54021612691539</v>
+        <v>12.89536584236129</v>
       </c>
       <c r="N9">
-        <v>26.06977453488471</v>
+        <v>17.33428190541222</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.18114133985088</v>
+        <v>19.35636095326572</v>
       </c>
       <c r="C10">
-        <v>5.43274867819324</v>
+        <v>7.087328327850644</v>
       </c>
       <c r="D10">
-        <v>13.56363916554069</v>
+        <v>9.620363983968662</v>
       </c>
       <c r="E10">
-        <v>13.54976359821744</v>
+        <v>8.060152401434744</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>68.0535402252129</v>
+        <v>54.7678488826766</v>
       </c>
       <c r="H10">
-        <v>23.9958494387503</v>
+        <v>16.32500503604913</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.306593733030256</v>
+        <v>5.004067588186463</v>
       </c>
       <c r="K10">
-        <v>16.65450688900323</v>
+        <v>14.72263337932304</v>
       </c>
       <c r="L10">
-        <v>12.52879578877015</v>
+        <v>7.678701330405474</v>
       </c>
       <c r="M10">
-        <v>19.55391066447495</v>
+        <v>13.38357510754641</v>
       </c>
       <c r="N10">
-        <v>25.9943773676688</v>
+        <v>17.07625505785448</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.27802273260266</v>
+        <v>19.92678336945211</v>
       </c>
       <c r="C11">
-        <v>5.512206127245975</v>
+        <v>7.283085097538519</v>
       </c>
       <c r="D11">
-        <v>13.57098000991989</v>
+        <v>9.772243294257814</v>
       </c>
       <c r="E11">
-        <v>13.53741413319904</v>
+        <v>8.06832127094742</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>68.13014096485469</v>
+        <v>55.57565616813412</v>
       </c>
       <c r="H11">
-        <v>23.983857149044</v>
+        <v>16.41588979447635</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.305707155959539</v>
+        <v>5.00254849559738</v>
       </c>
       <c r="K11">
-        <v>16.72161991370907</v>
+        <v>15.15025602836304</v>
       </c>
       <c r="L11">
-        <v>12.52203917462886</v>
+        <v>7.737803174188251</v>
       </c>
       <c r="M11">
-        <v>19.56332569160606</v>
+        <v>13.60861166183316</v>
       </c>
       <c r="N11">
-        <v>25.9620734677167</v>
+        <v>16.96394874249548</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.31527522242205</v>
+        <v>20.14079721345211</v>
       </c>
       <c r="C12">
-        <v>5.541867951446088</v>
+        <v>7.356244140083821</v>
       </c>
       <c r="D12">
-        <v>13.57408200088203</v>
+        <v>9.830159346158791</v>
       </c>
       <c r="E12">
-        <v>13.53292811656857</v>
+        <v>8.071899650726575</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>68.16098179487715</v>
+        <v>55.88625141433683</v>
       </c>
       <c r="H12">
-        <v>23.97979897608284</v>
+        <v>16.45190067659976</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.305381900234748</v>
+        <v>5.002007967948842</v>
       </c>
       <c r="K12">
-        <v>16.74748662957059</v>
+        <v>15.31076130493641</v>
       </c>
       <c r="L12">
-        <v>12.51970879289895</v>
+        <v>7.760697013219875</v>
       </c>
       <c r="M12">
-        <v>19.56734640743417</v>
+        <v>13.69421522944322</v>
       </c>
       <c r="N12">
-        <v>25.95012709297317</v>
+        <v>16.92217855809386</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.30722749104892</v>
+        <v>20.09479511251876</v>
       </c>
       <c r="C13">
-        <v>5.535498929467793</v>
+        <v>7.340530937435538</v>
       </c>
       <c r="D13">
-        <v>13.57339963234627</v>
+        <v>9.817668451002156</v>
       </c>
       <c r="E13">
-        <v>13.53388579736597</v>
+        <v>8.071107144821513</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>68.15425829052684</v>
+        <v>55.81914908476946</v>
       </c>
       <c r="H13">
-        <v>23.98065149617788</v>
+        <v>16.44407297572984</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.305451484643445</v>
+        <v>5.002122808833154</v>
       </c>
       <c r="K13">
-        <v>16.7418959201759</v>
+        <v>15.27625781227456</v>
       </c>
       <c r="L13">
-        <v>12.52020054186219</v>
+        <v>7.755743441545724</v>
       </c>
       <c r="M13">
-        <v>19.56646026222936</v>
+        <v>13.67576226888084</v>
       </c>
       <c r="N13">
-        <v>25.95268722677095</v>
+        <v>16.93114030912815</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.28107633055743</v>
+        <v>19.94443071594952</v>
       </c>
       <c r="C14">
-        <v>5.514655050267341</v>
+        <v>7.289123292740218</v>
       </c>
       <c r="D14">
-        <v>13.57122876629695</v>
+        <v>9.777000111527256</v>
       </c>
       <c r="E14">
-        <v>13.53704125155364</v>
+        <v>8.068605850357816</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>68.13264157039769</v>
+        <v>55.60111447305835</v>
       </c>
       <c r="H14">
-        <v>23.98351360099647</v>
+        <v>16.41882004421997</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.305680187286779</v>
+        <v>5.002503320484207</v>
       </c>
       <c r="K14">
-        <v>16.72373901433767</v>
+        <v>15.1634897564193</v>
       </c>
       <c r="L14">
-        <v>12.52184288240866</v>
+        <v>7.739676325187217</v>
       </c>
       <c r="M14">
-        <v>19.56364736623418</v>
+        <v>13.61564674823236</v>
       </c>
       <c r="N14">
-        <v>25.96108489450504</v>
+        <v>16.96049691763574</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.26513087864866</v>
+        <v>19.85206675592818</v>
       </c>
       <c r="C15">
-        <v>5.501831604855577</v>
+        <v>7.257508732423526</v>
       </c>
       <c r="D15">
-        <v>13.56994095023167</v>
+        <v>9.752141500268955</v>
       </c>
       <c r="E15">
-        <v>13.53899884759688</v>
+        <v>8.067137392541332</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>68.11963919052937</v>
+        <v>55.46817578484809</v>
       </c>
       <c r="H15">
-        <v>23.98532962340921</v>
+        <v>16.40356178273369</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.305821637053281</v>
+        <v>5.002740966582615</v>
       </c>
       <c r="K15">
-        <v>16.71267580067325</v>
+        <v>15.09422885754423</v>
       </c>
       <c r="L15">
-        <v>12.52287856553596</v>
+        <v>7.72990186441166</v>
       </c>
       <c r="M15">
-        <v>19.56198361765482</v>
+        <v>13.57887368735777</v>
       </c>
       <c r="N15">
-        <v>25.96626599554216</v>
+        <v>16.9785782974164</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.17489046656186</v>
+        <v>19.31880740961747</v>
       </c>
       <c r="C16">
-        <v>5.427496868187757</v>
+        <v>7.074398769772339</v>
       </c>
       <c r="D16">
-        <v>13.56320460542467</v>
+        <v>9.610495639584689</v>
       </c>
       <c r="E16">
-        <v>13.55059734220586</v>
+        <v>8.059685515241334</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>68.04879138839233</v>
+        <v>54.71570999181689</v>
       </c>
       <c r="H16">
-        <v>23.99670076930055</v>
+        <v>16.31928466291843</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.306653140027109</v>
+        <v>5.004171632629601</v>
       </c>
       <c r="K16">
-        <v>16.65018514029525</v>
+        <v>14.69449057799348</v>
       </c>
       <c r="L16">
-        <v>12.52926931268921</v>
+        <v>7.674910217164989</v>
       </c>
       <c r="M16">
-        <v>19.55335925117942</v>
+        <v>13.36892446872598</v>
       </c>
       <c r="N16">
-        <v>25.99652860492094</v>
+        <v>17.0836989255626</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.12056578594715</v>
+        <v>18.98819850450337</v>
       </c>
       <c r="C17">
-        <v>5.381147735325347</v>
+        <v>6.960326831626193</v>
       </c>
       <c r="D17">
-        <v>13.55964780455161</v>
+        <v>9.524337407087772</v>
       </c>
       <c r="E17">
-        <v>13.55805237471468</v>
+        <v>8.055960302351526</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>68.00860613182373</v>
+        <v>54.26238562201377</v>
       </c>
       <c r="H17">
-        <v>24.00453716532804</v>
+        <v>16.27034552279205</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.307181925720073</v>
+        <v>5.00510939126421</v>
       </c>
       <c r="K17">
-        <v>16.61267319565287</v>
+        <v>14.44678413608188</v>
       </c>
       <c r="L17">
-        <v>12.53359686519898</v>
+        <v>7.642079233657788</v>
       </c>
       <c r="M17">
-        <v>19.54888255456486</v>
+        <v>13.24085429347281</v>
       </c>
       <c r="N17">
-        <v>26.01560431127338</v>
+        <v>17.14950483861906</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.08970808778128</v>
+        <v>18.79679306427198</v>
       </c>
       <c r="C18">
-        <v>5.354218522388245</v>
+        <v>6.894073451724052</v>
       </c>
       <c r="D18">
-        <v>13.55781414583511</v>
+        <v>9.475058738438818</v>
       </c>
       <c r="E18">
-        <v>13.56246531256125</v>
+        <v>8.054123502231407</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>67.98670030270098</v>
+        <v>54.00467111460012</v>
       </c>
       <c r="H18">
-        <v>24.00936075180843</v>
+        <v>16.24318894345775</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.307492946422546</v>
+        <v>5.005670351843616</v>
       </c>
       <c r="K18">
-        <v>16.59140549084307</v>
+        <v>14.30342004030504</v>
       </c>
       <c r="L18">
-        <v>12.5362357116557</v>
+        <v>7.623525382198769</v>
       </c>
       <c r="M18">
-        <v>19.54660766581393</v>
+        <v>13.16747101430786</v>
       </c>
       <c r="N18">
-        <v>26.02676392267142</v>
+        <v>17.18783004246809</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.079327669755</v>
+        <v>18.73177512684573</v>
       </c>
       <c r="C19">
-        <v>5.345054716967768</v>
+        <v>6.871530701923061</v>
       </c>
       <c r="D19">
-        <v>13.5572297811799</v>
+        <v>9.458422097192372</v>
       </c>
       <c r="E19">
-        <v>13.56398094058197</v>
+        <v>8.053553641761695</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>67.97949106565488</v>
+        <v>53.91793126342048</v>
       </c>
       <c r="H19">
-        <v>24.01104826290351</v>
+        <v>16.23416238531921</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.30759943482529</v>
+        <v>5.005863945899716</v>
       </c>
       <c r="K19">
-        <v>16.5842580377824</v>
+        <v>14.25472887997997</v>
       </c>
       <c r="L19">
-        <v>12.5371549154009</v>
+        <v>7.617299728401616</v>
       </c>
       <c r="M19">
-        <v>19.54588902567471</v>
+        <v>13.14267388844411</v>
       </c>
       <c r="N19">
-        <v>26.0305746379772</v>
+        <v>17.20088714843367</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.12630872141963</v>
+        <v>19.0235222328186</v>
       </c>
       <c r="C20">
-        <v>5.386109763025141</v>
+        <v>6.97253640092264</v>
       </c>
       <c r="D20">
-        <v>13.56000449035376</v>
+        <v>9.533480553819189</v>
       </c>
       <c r="E20">
-        <v>13.55724584008611</v>
+        <v>8.05632508920189</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>68.01275900006482</v>
+        <v>54.31032919083734</v>
       </c>
       <c r="H20">
-        <v>24.00367023259061</v>
+        <v>16.27545200043983</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.307124924053602</v>
+        <v>5.005007320284354</v>
       </c>
       <c r="K20">
-        <v>16.61663463016237</v>
+        <v>14.47324554123522</v>
       </c>
       <c r="L20">
-        <v>12.53312069471557</v>
+        <v>7.645539967473769</v>
       </c>
       <c r="M20">
-        <v>19.54932807680067</v>
+        <v>13.25445896237757</v>
       </c>
       <c r="N20">
-        <v>26.01355423935192</v>
+        <v>17.14245029409762</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.28874241694648</v>
+        <v>19.98865096878649</v>
       </c>
       <c r="C21">
-        <v>5.520789087755329</v>
+        <v>7.304249173533115</v>
       </c>
       <c r="D21">
-        <v>13.57185767326462</v>
+        <v>9.788934597893327</v>
       </c>
       <c r="E21">
-        <v>13.53610925295734</v>
+        <v>8.069327244945558</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>68.13894124531176</v>
+        <v>55.66502846611875</v>
       </c>
       <c r="H21">
-        <v>23.98265982343332</v>
+        <v>16.42619356853214</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.305612727827857</v>
+        <v>5.002390599147025</v>
       </c>
       <c r="K21">
-        <v>16.72905999489</v>
+        <v>15.19665156282916</v>
       </c>
       <c r="L21">
-        <v>12.52135429828819</v>
+        <v>7.744381624059018</v>
       </c>
       <c r="M21">
-        <v>19.56446124319553</v>
+        <v>13.63329388880462</v>
       </c>
       <c r="N21">
-        <v>25.95861052605591</v>
+        <v>16.95185335422046</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.39818659172687</v>
+        <v>20.60778622284313</v>
       </c>
       <c r="C22">
-        <v>5.606315826341499</v>
+        <v>7.515399099324295</v>
       </c>
       <c r="D22">
-        <v>13.58148134590024</v>
+        <v>9.958229260551605</v>
       </c>
       <c r="E22">
-        <v>13.52340518387565</v>
+        <v>8.080660036132661</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>68.23209153758238</v>
+        <v>56.57781846906646</v>
       </c>
       <c r="H22">
-        <v>23.97174372591945</v>
+        <v>16.53404330762374</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.304685443173275</v>
+        <v>5.000883671760717</v>
       </c>
       <c r="K22">
-        <v>16.80516553489798</v>
+        <v>15.66111323097248</v>
       </c>
       <c r="L22">
-        <v>12.51499413549603</v>
+        <v>7.811976598023504</v>
       </c>
       <c r="M22">
-        <v>19.57700496002814</v>
+        <v>13.8831285365316</v>
       </c>
       <c r="N22">
-        <v>25.92437087428498</v>
+        <v>16.83172078297696</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.33948228750187</v>
+        <v>20.27842570990171</v>
       </c>
       <c r="C23">
-        <v>5.560900744598149</v>
+        <v>7.403215860488165</v>
       </c>
       <c r="D23">
-        <v>13.57617388919993</v>
+        <v>9.867664794418635</v>
       </c>
       <c r="E23">
-        <v>13.53008418359257</v>
+        <v>8.074346519650053</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>68.1814017545579</v>
+        <v>56.08811052651994</v>
       </c>
       <c r="H23">
-        <v>23.97731232017041</v>
+        <v>16.47560334743302</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.305174779264389</v>
+        <v>5.00166877577194</v>
       </c>
       <c r="K23">
-        <v>16.76431173492301</v>
+        <v>15.41399811781443</v>
       </c>
       <c r="L23">
-        <v>12.51826717783812</v>
+        <v>7.775622649339206</v>
       </c>
       <c r="M23">
-        <v>19.57006828892349</v>
+        <v>13.74959216612871</v>
       </c>
       <c r="N23">
-        <v>25.94249261877776</v>
+        <v>16.89542148576104</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.12371117248705</v>
+        <v>19.00755652373321</v>
       </c>
       <c r="C24">
-        <v>5.383867309232379</v>
+        <v>6.967018548133732</v>
       </c>
       <c r="D24">
-        <v>13.55984257473886</v>
+        <v>9.529346141863893</v>
       </c>
       <c r="E24">
-        <v>13.5576100789524</v>
+        <v>8.056159220666288</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>68.01087775819754</v>
+        <v>54.28864485130236</v>
       </c>
       <c r="H24">
-        <v>24.0040611811973</v>
+        <v>16.27314031741194</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.307150672656055</v>
+        <v>5.005053398693692</v>
       </c>
       <c r="K24">
-        <v>16.61484273480974</v>
+        <v>14.46128530753764</v>
       </c>
       <c r="L24">
-        <v>12.53333550137509</v>
+        <v>7.643974370156986</v>
       </c>
       <c r="M24">
-        <v>19.54912572517748</v>
+        <v>13.24830752254581</v>
       </c>
       <c r="N24">
-        <v>26.01448047641751</v>
+        <v>17.14563812172333</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.90590922956817</v>
+        <v>17.58961408413865</v>
       </c>
       <c r="C25">
-        <v>5.182630774208008</v>
+        <v>6.471973717456611</v>
       </c>
       <c r="D25">
-        <v>13.550341288954</v>
+        <v>9.175119575405043</v>
       </c>
       <c r="E25">
-        <v>13.59208209304224</v>
+        <v>8.048175126969413</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>67.87313638124971</v>
+        <v>52.46312475266838</v>
       </c>
       <c r="H25">
-        <v>24.04500644756627</v>
+        <v>16.09239861406262</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.309545057141449</v>
+        <v>5.009524728394469</v>
       </c>
       <c r="K25">
-        <v>16.46545802366552</v>
+        <v>13.40007109500922</v>
       </c>
       <c r="L25">
-        <v>12.55531621353394</v>
+        <v>7.514541476411465</v>
       </c>
       <c r="M25">
-        <v>19.53801278059839</v>
+        <v>12.71846680689611</v>
       </c>
       <c r="N25">
-        <v>26.09931184085578</v>
+        <v>17.43363411283947</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_24/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.50957435940589</v>
+        <v>13.39941115931804</v>
       </c>
       <c r="C2">
-        <v>6.086292438411849</v>
+        <v>7.288342263828451</v>
       </c>
       <c r="D2">
-        <v>8.92429687035732</v>
+        <v>6.978106634707018</v>
       </c>
       <c r="E2">
-        <v>8.051733591446887</v>
+        <v>7.129604469869251</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>51.21590521668575</v>
+        <v>48.93054407669681</v>
       </c>
       <c r="H2">
-        <v>15.98907176549578</v>
+        <v>3.067627035857089</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.034233321387797</v>
       </c>
       <c r="J2">
-        <v>5.013473343875328</v>
+        <v>14.93566025007034</v>
       </c>
       <c r="K2">
-        <v>12.59328109117452</v>
+        <v>25.06999073069486</v>
       </c>
       <c r="L2">
-        <v>7.429712846063268</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>12.33922778908719</v>
+        <v>11.508508922648</v>
       </c>
       <c r="N2">
-        <v>17.6604421254857</v>
+        <v>7.137125219765901</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.75852334528594</v>
+        <v>12.55204601614706</v>
       </c>
       <c r="C3">
-        <v>5.811879720387043</v>
+        <v>6.835580869046501</v>
       </c>
       <c r="D3">
-        <v>8.760994522574354</v>
+        <v>6.496237837356905</v>
       </c>
       <c r="E3">
-        <v>8.059762767045639</v>
+        <v>6.80785079110527</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>50.42992106104312</v>
+        <v>47.13809124442324</v>
       </c>
       <c r="H3">
-        <v>15.93632133784875</v>
+        <v>3.319720641973953</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.253823764685773</v>
       </c>
       <c r="J3">
-        <v>5.016537991565877</v>
+        <v>14.6464842687237</v>
       </c>
       <c r="K3">
-        <v>12.03320684529348</v>
+        <v>24.49178962259464</v>
       </c>
       <c r="L3">
-        <v>7.378584716936412</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>12.08989096294193</v>
+        <v>10.78787577206884</v>
       </c>
       <c r="N3">
-        <v>17.82304405761453</v>
+        <v>6.819474828347836</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.28943865287949</v>
+        <v>12.00442119586383</v>
       </c>
       <c r="C4">
-        <v>5.637093823396701</v>
+        <v>6.54738192233333</v>
       </c>
       <c r="D4">
-        <v>8.664177448314168</v>
+        <v>6.215951820238059</v>
       </c>
       <c r="E4">
-        <v>8.067378251925563</v>
+        <v>6.601541072397836</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>49.97611910078682</v>
+        <v>46.001755814991</v>
       </c>
       <c r="H4">
-        <v>15.91203384918394</v>
+        <v>3.479788680727589</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.393743358997517</v>
       </c>
       <c r="J4">
-        <v>5.018605397596543</v>
+        <v>14.46642859776504</v>
       </c>
       <c r="K4">
-        <v>11.68387297405555</v>
+        <v>24.12751262333489</v>
       </c>
       <c r="L4">
-        <v>7.350269924070907</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>11.94090107251475</v>
+        <v>10.32132013565006</v>
       </c>
       <c r="N4">
-        <v>17.92718469627864</v>
+        <v>6.617045899319271</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.09655234071284</v>
+        <v>11.77243077541131</v>
       </c>
       <c r="C5">
-        <v>5.564313232244176</v>
+        <v>6.433305647586287</v>
       </c>
       <c r="D5">
-        <v>8.625614958404574</v>
+        <v>6.105366274379766</v>
       </c>
       <c r="E5">
-        <v>8.071144692291288</v>
+        <v>6.512831537124063</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>49.79836041035185</v>
+        <v>45.48907945355265</v>
       </c>
       <c r="H5">
-        <v>15.90411224828394</v>
+        <v>3.546883414033243</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.454612287751246</v>
       </c>
       <c r="J5">
-        <v>5.019493767143432</v>
+        <v>14.38419083825826</v>
       </c>
       <c r="K5">
-        <v>11.54034567126651</v>
+        <v>23.95878859731943</v>
       </c>
       <c r="L5">
-        <v>7.339496403890158</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.88126751141413</v>
+        <v>10.12645001926904</v>
       </c>
       <c r="N5">
-        <v>17.97069377430778</v>
+        <v>6.533127503430565</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.06442768841856</v>
+        <v>11.73137864356725</v>
       </c>
       <c r="C6">
-        <v>5.552135228913594</v>
+        <v>6.42149324699549</v>
       </c>
       <c r="D6">
-        <v>8.619266172030093</v>
+        <v>6.086831773267513</v>
       </c>
       <c r="E6">
-        <v>8.07180980255321</v>
+        <v>6.494964707858165</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>49.76927435760481</v>
+        <v>45.3531335280683</v>
       </c>
       <c r="H6">
-        <v>15.90291441162766</v>
+        <v>3.558731433174465</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.468040632787145</v>
       </c>
       <c r="J6">
-        <v>5.019644029210331</v>
+        <v>14.36036104786485</v>
       </c>
       <c r="K6">
-        <v>11.51644868705226</v>
+        <v>23.90853240332706</v>
       </c>
       <c r="L6">
-        <v>7.337753395452437</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.87143211014513</v>
+        <v>10.09532945097343</v>
       </c>
       <c r="N6">
-        <v>17.97798281609104</v>
+        <v>6.519538722874921</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.2868439490608</v>
+        <v>11.99568582019561</v>
       </c>
       <c r="C7">
-        <v>5.636118526218092</v>
+        <v>6.565293856480261</v>
       </c>
       <c r="D7">
-        <v>8.663653742504284</v>
+        <v>6.214391356411697</v>
       </c>
       <c r="E7">
-        <v>8.067426378649074</v>
+        <v>6.592272149366633</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>49.97369286130567</v>
+        <v>45.85919009855327</v>
       </c>
       <c r="H7">
-        <v>15.9119190969212</v>
+        <v>3.482372361913184</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.40317457936905</v>
       </c>
       <c r="J7">
-        <v>5.018617193691183</v>
+        <v>14.43782429201534</v>
       </c>
       <c r="K7">
-        <v>11.68194177322715</v>
+        <v>24.06533952730623</v>
       </c>
       <c r="L7">
-        <v>7.350121543602326</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>11.94009239222488</v>
+        <v>10.32299344861632</v>
       </c>
       <c r="N7">
-        <v>17.92776715201602</v>
+        <v>6.61714289789069</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.25240645840159</v>
+        <v>13.10493461452831</v>
       </c>
       <c r="C8">
-        <v>5.99299645759798</v>
+        <v>7.158155321681948</v>
       </c>
       <c r="D8">
-        <v>8.867288295208208</v>
+        <v>6.815238773891068</v>
       </c>
       <c r="E8">
-        <v>8.053937207248444</v>
+        <v>7.01036186289069</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>50.93888204539381</v>
+        <v>48.14876265120219</v>
       </c>
       <c r="H8">
-        <v>15.9691648731181</v>
+        <v>3.155605252107831</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.1199313443437</v>
       </c>
       <c r="J8">
-        <v>5.014490981341142</v>
+        <v>14.80109325620734</v>
       </c>
       <c r="K8">
-        <v>12.40140840396238</v>
+        <v>24.79570139232107</v>
       </c>
       <c r="L8">
-        <v>7.411439760071212</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>12.25243424522565</v>
+        <v>11.27026286211207</v>
       </c>
       <c r="N8">
-        <v>17.71560720461444</v>
+        <v>7.030721894350221</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.07321047639567</v>
+        <v>15.15283076379146</v>
       </c>
       <c r="C9">
-        <v>6.642028426449473</v>
+        <v>8.209703546223553</v>
       </c>
       <c r="D9">
-        <v>9.292946305070791</v>
+        <v>7.926768707553357</v>
       </c>
       <c r="E9">
-        <v>8.049361721727836</v>
+        <v>7.773567771685842</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>53.06284942428572</v>
+        <v>52.56252630729313</v>
       </c>
       <c r="H9">
-        <v>16.14848712970299</v>
+        <v>2.552659726471417</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.589658156309002</v>
       </c>
       <c r="J9">
-        <v>5.007913560345383</v>
+        <v>15.53859888156671</v>
       </c>
       <c r="K9">
-        <v>13.76177059271908</v>
+        <v>26.25185846367339</v>
       </c>
       <c r="L9">
-        <v>7.556492035845183</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>12.89536584236129</v>
+        <v>12.93034934187956</v>
       </c>
       <c r="N9">
-        <v>17.33428190541222</v>
+        <v>7.778814656472127</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.35636095326572</v>
+        <v>16.49063627434085</v>
       </c>
       <c r="C10">
-        <v>7.087328327850644</v>
+        <v>8.988237103800062</v>
       </c>
       <c r="D10">
-        <v>9.620363983968662</v>
+        <v>8.66483797116352</v>
       </c>
       <c r="E10">
-        <v>8.060152401434744</v>
+        <v>8.128203413435214</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>54.7678488826766</v>
+        <v>54.98403769074483</v>
       </c>
       <c r="H10">
-        <v>16.32500503604913</v>
+        <v>2.167233401721901</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.237464378856399</v>
       </c>
       <c r="J10">
-        <v>5.004067588186463</v>
+        <v>15.93123949289791</v>
       </c>
       <c r="K10">
-        <v>14.72263337932304</v>
+        <v>26.99021620182724</v>
       </c>
       <c r="L10">
-        <v>7.678701330405474</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>13.38357510754641</v>
+        <v>14.04493582012293</v>
       </c>
       <c r="N10">
-        <v>17.07625505785448</v>
+        <v>8.152931492665246</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.92678336945211</v>
+        <v>16.91384759000867</v>
       </c>
       <c r="C11">
-        <v>7.283085097538519</v>
+        <v>9.757151418381008</v>
       </c>
       <c r="D11">
-        <v>9.772243294257814</v>
+        <v>8.976790961053922</v>
       </c>
       <c r="E11">
-        <v>8.06832127094742</v>
+        <v>7.037940626503186</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>55.57565616813412</v>
+        <v>51.09891781966743</v>
       </c>
       <c r="H11">
-        <v>16.41588979447635</v>
+        <v>3.040840965513798</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.173351233084442</v>
       </c>
       <c r="J11">
-        <v>5.00254849559738</v>
+        <v>15.03843140145827</v>
       </c>
       <c r="K11">
-        <v>15.15025602836304</v>
+        <v>25.09985000373335</v>
       </c>
       <c r="L11">
-        <v>7.737803174188251</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>13.60861166183316</v>
+        <v>14.606367124712</v>
       </c>
       <c r="N11">
-        <v>16.96394874249548</v>
+        <v>7.16876812151316</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.14079721345211</v>
+        <v>17.00762836358931</v>
       </c>
       <c r="C12">
-        <v>7.356244140083821</v>
+        <v>10.24298205221576</v>
       </c>
       <c r="D12">
-        <v>9.830159346158791</v>
+        <v>9.089895085395256</v>
       </c>
       <c r="E12">
-        <v>8.071899650726575</v>
+        <v>6.294686286242814</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>55.88625141433683</v>
+        <v>47.46364970384233</v>
       </c>
       <c r="H12">
-        <v>16.45190067659976</v>
+        <v>4.350454867254248</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.16924301080813</v>
       </c>
       <c r="J12">
-        <v>5.002007967948842</v>
+        <v>14.24306360165883</v>
       </c>
       <c r="K12">
-        <v>15.31076130493641</v>
+        <v>23.44855993515849</v>
       </c>
       <c r="L12">
-        <v>7.760697013219875</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>13.69421522944322</v>
+        <v>14.85216249386794</v>
       </c>
       <c r="N12">
-        <v>16.92217855809386</v>
+        <v>6.295445753794282</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.09479511251876</v>
+        <v>16.84964471954509</v>
       </c>
       <c r="C13">
-        <v>7.340530937435538</v>
+        <v>10.57600376087666</v>
       </c>
       <c r="D13">
-        <v>9.817668451002156</v>
+        <v>9.060133062101732</v>
       </c>
       <c r="E13">
-        <v>8.071107144821513</v>
+        <v>5.833742077093394</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>55.81914908476946</v>
+        <v>43.54759141897772</v>
       </c>
       <c r="H13">
-        <v>16.44407297572984</v>
+        <v>5.744165037425677</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.225964614685366</v>
       </c>
       <c r="J13">
-        <v>5.002122808833154</v>
+        <v>13.42961354965513</v>
       </c>
       <c r="K13">
-        <v>15.27625781227456</v>
+        <v>21.78775700828592</v>
       </c>
       <c r="L13">
-        <v>7.755743441545724</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>13.67576226888084</v>
+        <v>14.88266906163072</v>
       </c>
       <c r="N13">
-        <v>16.93114030912815</v>
+        <v>5.460570907757215</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.94443071594952</v>
+        <v>16.62184267382042</v>
       </c>
       <c r="C14">
-        <v>7.289123292740218</v>
+        <v>10.75195996290269</v>
       </c>
       <c r="D14">
-        <v>9.777000111527256</v>
+        <v>8.974420544057416</v>
       </c>
       <c r="E14">
-        <v>8.068605850357816</v>
+        <v>5.722390880253786</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>55.60111447305835</v>
+        <v>40.6233431946792</v>
       </c>
       <c r="H14">
-        <v>16.41882004421997</v>
+        <v>6.742856284463554</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.295487839052004</v>
       </c>
       <c r="J14">
-        <v>5.002503320484207</v>
+        <v>12.84772413283696</v>
       </c>
       <c r="K14">
-        <v>15.1634897564193</v>
+        <v>20.61619588871016</v>
       </c>
       <c r="L14">
-        <v>7.739676325187217</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>13.61564674823236</v>
+        <v>14.80873270863698</v>
       </c>
       <c r="N14">
-        <v>16.96049691763574</v>
+        <v>4.917661486027613</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.85206675592818</v>
+        <v>16.50947815940859</v>
       </c>
       <c r="C15">
-        <v>7.257508732423526</v>
+        <v>10.76807339461128</v>
       </c>
       <c r="D15">
-        <v>9.752141500268955</v>
+        <v>8.922643842236054</v>
       </c>
       <c r="E15">
-        <v>8.067137392541332</v>
+        <v>5.717591778900114</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>55.46817578484809</v>
+        <v>39.80727398570056</v>
       </c>
       <c r="H15">
-        <v>16.40356178273369</v>
+        <v>6.97822509094549</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.3304904961593</v>
       </c>
       <c r="J15">
-        <v>5.002740966582615</v>
+        <v>12.69372458519458</v>
       </c>
       <c r="K15">
-        <v>15.09422885754423</v>
+        <v>20.31010762560163</v>
       </c>
       <c r="L15">
-        <v>7.72990186441166</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>13.57887368735777</v>
+        <v>14.74537870281756</v>
       </c>
       <c r="N15">
-        <v>16.9785782974164</v>
+        <v>4.790242565744114</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.31880740961747</v>
+        <v>15.98128888931271</v>
       </c>
       <c r="C16">
-        <v>7.074398769772339</v>
+        <v>10.42152940902518</v>
       </c>
       <c r="D16">
-        <v>9.610495639584689</v>
+        <v>8.62508308159352</v>
       </c>
       <c r="E16">
-        <v>8.059685515241334</v>
+        <v>5.615618598224757</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>54.71570999181689</v>
+        <v>39.31245033148564</v>
       </c>
       <c r="H16">
-        <v>16.31928466291843</v>
+        <v>6.80716801298941</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.474403151762418</v>
       </c>
       <c r="J16">
-        <v>5.004171632629601</v>
+        <v>12.65969349990252</v>
       </c>
       <c r="K16">
-        <v>14.69449057799348</v>
+        <v>20.26577486902107</v>
       </c>
       <c r="L16">
-        <v>7.674910217164989</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>13.36892446872598</v>
+        <v>14.28998439617241</v>
       </c>
       <c r="N16">
-        <v>17.0836989255626</v>
+        <v>4.761456782152347</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.98819850450337</v>
+        <v>15.69391583209009</v>
       </c>
       <c r="C17">
-        <v>6.960326831626193</v>
+        <v>10.04959017091646</v>
       </c>
       <c r="D17">
-        <v>9.524337407087772</v>
+        <v>8.439665752276868</v>
       </c>
       <c r="E17">
-        <v>8.055960302351526</v>
+        <v>5.554004712869305</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>54.26238562201377</v>
+        <v>40.52477246498326</v>
       </c>
       <c r="H17">
-        <v>16.27034552279205</v>
+        <v>6.121339956546487</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.548992191057815</v>
       </c>
       <c r="J17">
-        <v>5.00510939126421</v>
+        <v>12.94323700002625</v>
       </c>
       <c r="K17">
-        <v>14.44678413608188</v>
+        <v>20.85121351071064</v>
       </c>
       <c r="L17">
-        <v>7.642079233657788</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>13.24085429347281</v>
+        <v>13.9737880934866</v>
       </c>
       <c r="N17">
-        <v>17.14950483861906</v>
+        <v>5.020558766566789</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.79679306427198</v>
+        <v>15.59415296398723</v>
       </c>
       <c r="C18">
-        <v>6.894073451724052</v>
+        <v>9.607328579206241</v>
       </c>
       <c r="D18">
-        <v>9.475058738438818</v>
+        <v>8.333683348382994</v>
       </c>
       <c r="E18">
-        <v>8.054123502231407</v>
+        <v>5.742288070118073</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>54.00467111460012</v>
+        <v>43.45659734352172</v>
       </c>
       <c r="H18">
-        <v>16.24318894345775</v>
+        <v>4.952614874989441</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.559099149029221</v>
       </c>
       <c r="J18">
-        <v>5.005670351843616</v>
+        <v>13.56072143144554</v>
       </c>
       <c r="K18">
-        <v>14.30342004030504</v>
+        <v>22.11725304927617</v>
       </c>
       <c r="L18">
-        <v>7.623525382198769</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>13.16747101430786</v>
+        <v>13.74584224139935</v>
       </c>
       <c r="N18">
-        <v>17.18783004246809</v>
+        <v>5.619636618648373</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.73177512684573</v>
+        <v>15.64607605123438</v>
       </c>
       <c r="C19">
-        <v>6.871530701923061</v>
+        <v>9.192583550357156</v>
       </c>
       <c r="D19">
-        <v>9.458422097192372</v>
+        <v>8.300861393992417</v>
       </c>
       <c r="E19">
-        <v>8.053553641761695</v>
+        <v>6.392187461217695</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>53.91793126342048</v>
+        <v>47.34241521092024</v>
       </c>
       <c r="H19">
-        <v>16.23416238531921</v>
+        <v>3.609190629784378</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.529568231753843</v>
       </c>
       <c r="J19">
-        <v>5.005863945899716</v>
+        <v>14.37097542568319</v>
       </c>
       <c r="K19">
-        <v>14.25472887997997</v>
+        <v>23.7859108326984</v>
       </c>
       <c r="L19">
-        <v>7.617299728401616</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>13.14267388844411</v>
+        <v>13.61832197339906</v>
       </c>
       <c r="N19">
-        <v>17.20088714843367</v>
+        <v>6.507379267096884</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.0235222328186</v>
+        <v>16.13347701058979</v>
       </c>
       <c r="C20">
-        <v>6.97253640092264</v>
+        <v>8.836686468712685</v>
       </c>
       <c r="D20">
-        <v>9.533480553819189</v>
+        <v>8.475705343822559</v>
       </c>
       <c r="E20">
-        <v>8.05632508920189</v>
+        <v>8.00866969917978</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>54.31032919083734</v>
+        <v>53.97614688614847</v>
       </c>
       <c r="H20">
-        <v>16.27545200043983</v>
+        <v>2.271325268325332</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.358551932139985</v>
       </c>
       <c r="J20">
-        <v>5.005007320284354</v>
+        <v>15.7463526821256</v>
       </c>
       <c r="K20">
-        <v>14.47324554123522</v>
+        <v>26.62158047609645</v>
       </c>
       <c r="L20">
-        <v>7.645539967473769</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>13.25445896237757</v>
+        <v>13.77072076941085</v>
       </c>
       <c r="N20">
-        <v>17.14245029409762</v>
+        <v>8.05356905117794</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.98865096878649</v>
+        <v>17.14125691746285</v>
       </c>
       <c r="C21">
-        <v>7.304249173533115</v>
+        <v>9.336192413605065</v>
       </c>
       <c r="D21">
-        <v>9.788934597893327</v>
+        <v>9.019481577275732</v>
       </c>
       <c r="E21">
-        <v>8.069327244945558</v>
+        <v>8.521211880008394</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>55.66502846611875</v>
+        <v>56.71977631416253</v>
       </c>
       <c r="H21">
-        <v>16.42619356853214</v>
+        <v>1.930566735004123</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.076018638022255</v>
       </c>
       <c r="J21">
-        <v>5.002390599147025</v>
+        <v>16.24671713281801</v>
       </c>
       <c r="K21">
-        <v>15.19665156282916</v>
+        <v>27.59755669126209</v>
       </c>
       <c r="L21">
-        <v>7.744381624059018</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>13.63329388880462</v>
+        <v>14.57411499483841</v>
       </c>
       <c r="N21">
-        <v>16.95185335422046</v>
+        <v>8.539583533483611</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.60778622284313</v>
+        <v>17.76900694523903</v>
       </c>
       <c r="C22">
-        <v>7.515399099324295</v>
+        <v>9.660935289405412</v>
       </c>
       <c r="D22">
-        <v>9.958229260551605</v>
+        <v>9.361165900895738</v>
       </c>
       <c r="E22">
-        <v>8.080660036132661</v>
+        <v>8.774191353859376</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>56.57781846906646</v>
+        <v>58.32281024713662</v>
       </c>
       <c r="H22">
-        <v>16.53404330762374</v>
+        <v>1.725762304064223</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.887197206287654</v>
       </c>
       <c r="J22">
-        <v>5.000883671760717</v>
+        <v>16.53907421034788</v>
       </c>
       <c r="K22">
-        <v>15.66111323097248</v>
+        <v>28.16168089455897</v>
       </c>
       <c r="L22">
-        <v>7.811976598023504</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>13.8831285365316</v>
+        <v>15.07933478036228</v>
       </c>
       <c r="N22">
-        <v>16.83172078297696</v>
+        <v>8.777879794882608</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.27842570990171</v>
+        <v>17.44207005014139</v>
       </c>
       <c r="C23">
-        <v>7.403215860488165</v>
+        <v>9.471691468783531</v>
       </c>
       <c r="D23">
-        <v>9.867664794418635</v>
+        <v>9.180201061794003</v>
       </c>
       <c r="E23">
-        <v>8.074346519650053</v>
+        <v>8.647445800731413</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>56.08811052651994</v>
+        <v>57.60057821035135</v>
       </c>
       <c r="H23">
-        <v>16.47560334743302</v>
+        <v>1.833058696267928</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.975598586451659</v>
       </c>
       <c r="J23">
-        <v>5.00166877577194</v>
+        <v>16.41179775438578</v>
       </c>
       <c r="K23">
-        <v>15.41399811781443</v>
+        <v>27.92277465887564</v>
       </c>
       <c r="L23">
-        <v>7.775622649339206</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>13.74959216612871</v>
+        <v>14.80793244375958</v>
       </c>
       <c r="N23">
-        <v>16.89542148576104</v>
+        <v>8.6502071492433</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.00755652373321</v>
+        <v>16.13922303493686</v>
       </c>
       <c r="C24">
-        <v>6.967018548133732</v>
+        <v>8.764346220119108</v>
       </c>
       <c r="D24">
-        <v>9.529346141863893</v>
+        <v>8.467503449214348</v>
       </c>
       <c r="E24">
-        <v>8.056159220666288</v>
+        <v>8.140473476061933</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>54.28864485130236</v>
+        <v>54.58410366434245</v>
       </c>
       <c r="H24">
-        <v>16.27314031741194</v>
+        <v>2.249201845983166</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.337744131084758</v>
       </c>
       <c r="J24">
-        <v>5.005053398693692</v>
+        <v>15.87884534516063</v>
       </c>
       <c r="K24">
-        <v>14.46128530753764</v>
+        <v>26.90160251547259</v>
       </c>
       <c r="L24">
-        <v>7.643974370156986</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>13.24830752254581</v>
+        <v>13.74450988149004</v>
       </c>
       <c r="N24">
-        <v>17.14563812172333</v>
+        <v>8.153263399431804</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.58961408413865</v>
+        <v>14.6129431343716</v>
       </c>
       <c r="C25">
-        <v>6.471973717456611</v>
+        <v>7.96307390391252</v>
       </c>
       <c r="D25">
-        <v>9.175119575405043</v>
+        <v>7.639622963741314</v>
       </c>
       <c r="E25">
-        <v>8.048175126969413</v>
+        <v>7.561785047797873</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>52.46312475266838</v>
+        <v>51.18412015573782</v>
       </c>
       <c r="H25">
-        <v>16.09239861406262</v>
+        <v>2.714364857470266</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.744893244561372</v>
       </c>
       <c r="J25">
-        <v>5.009524728394469</v>
+        <v>15.29531712925267</v>
       </c>
       <c r="K25">
-        <v>13.40007109500922</v>
+        <v>25.7665677306885</v>
       </c>
       <c r="L25">
-        <v>7.514541476411465</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>12.71846680689611</v>
+        <v>12.50801361969636</v>
       </c>
       <c r="N25">
-        <v>17.43363411283947</v>
+        <v>7.585228372557371</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_24/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.39941115931804</v>
+        <v>13.25779862372544</v>
       </c>
       <c r="C2">
-        <v>7.288342263828451</v>
+        <v>7.86798498351937</v>
       </c>
       <c r="D2">
-        <v>6.978106634707018</v>
+        <v>6.991127237318355</v>
       </c>
       <c r="E2">
-        <v>7.129604469869251</v>
+        <v>6.848634401400024</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>48.93054407669681</v>
+        <v>42.31327121785122</v>
       </c>
       <c r="H2">
-        <v>3.067627035857089</v>
+        <v>2.863405756377037</v>
       </c>
       <c r="I2">
-        <v>4.034233321387797</v>
+        <v>3.787398850944403</v>
       </c>
       <c r="J2">
-        <v>14.93566025007034</v>
+        <v>13.62527502264344</v>
       </c>
       <c r="K2">
-        <v>25.06999073069486</v>
+        <v>21.96123431634658</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>17.2383817249122</v>
       </c>
       <c r="M2">
-        <v>11.508508922648</v>
+        <v>15.40090030519985</v>
       </c>
       <c r="N2">
-        <v>7.137125219765901</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.77530462239381</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.344297774490441</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.55204601614706</v>
+        <v>12.39351659446212</v>
       </c>
       <c r="C3">
-        <v>6.835580869046501</v>
+        <v>7.315603033855687</v>
       </c>
       <c r="D3">
-        <v>6.496237837356905</v>
+        <v>6.510169632594118</v>
       </c>
       <c r="E3">
-        <v>6.80785079110527</v>
+        <v>6.576247340962514</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>47.13809124442324</v>
+        <v>41.19923751021019</v>
       </c>
       <c r="H3">
-        <v>3.319720641973953</v>
+        <v>3.089459597896478</v>
       </c>
       <c r="I3">
-        <v>4.253823764685773</v>
+        <v>3.975966677170542</v>
       </c>
       <c r="J3">
-        <v>14.6464842687237</v>
+        <v>13.42151087649229</v>
       </c>
       <c r="K3">
-        <v>24.49178962259464</v>
+        <v>21.6693850668577</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>17.14245448847072</v>
       </c>
       <c r="M3">
-        <v>10.78787577206884</v>
+        <v>15.0760760795055</v>
       </c>
       <c r="N3">
-        <v>6.819474828347836</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.04370234883953</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.033084546087215</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.00442119586383</v>
+        <v>11.83027457577499</v>
       </c>
       <c r="C4">
-        <v>6.54738192233333</v>
+        <v>6.961756583262561</v>
       </c>
       <c r="D4">
-        <v>6.215951820238059</v>
+        <v>6.225937464880258</v>
       </c>
       <c r="E4">
-        <v>6.601541072397836</v>
+        <v>6.401747986818547</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>46.001755814991</v>
+        <v>40.49969041350904</v>
       </c>
       <c r="H4">
-        <v>3.479788680727589</v>
+        <v>3.233156742179287</v>
       </c>
       <c r="I4">
-        <v>4.393743358997517</v>
+        <v>4.096522682923297</v>
       </c>
       <c r="J4">
-        <v>14.46642859776504</v>
+        <v>13.29281336044201</v>
       </c>
       <c r="K4">
-        <v>24.12751262333489</v>
+        <v>21.48486368287599</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>17.07477159368928</v>
       </c>
       <c r="M4">
-        <v>10.32132013565006</v>
+        <v>14.88753713946166</v>
       </c>
       <c r="N4">
-        <v>6.617045899319271</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.56991361427725</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.835168745445157</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.77243077541131</v>
+        <v>11.59080455120678</v>
       </c>
       <c r="C5">
-        <v>6.433305647586287</v>
+        <v>6.820147580437698</v>
       </c>
       <c r="D5">
-        <v>6.105366274379766</v>
+        <v>6.115242140336868</v>
       </c>
       <c r="E5">
-        <v>6.512831537124063</v>
+        <v>6.326794500927786</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>45.48907945355265</v>
+        <v>40.17628915866381</v>
       </c>
       <c r="H5">
-        <v>3.546883414033243</v>
+        <v>3.293412942010633</v>
       </c>
       <c r="I5">
-        <v>4.454612287751246</v>
+        <v>4.14976060182457</v>
       </c>
       <c r="J5">
-        <v>14.38419083825826</v>
+        <v>13.23248001693461</v>
       </c>
       <c r="K5">
-        <v>23.95878859731943</v>
+        <v>21.3936486240771</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>17.03258797910483</v>
       </c>
       <c r="M5">
-        <v>10.12645001926904</v>
+        <v>14.80377529524696</v>
       </c>
       <c r="N5">
-        <v>6.533127503430565</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.37184148663749</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.753176857116511</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.73137864356725</v>
+        <v>11.54843756748433</v>
       </c>
       <c r="C6">
-        <v>6.42149324699549</v>
+        <v>6.804108960026298</v>
       </c>
       <c r="D6">
-        <v>6.086831773267513</v>
+        <v>6.096690174970214</v>
       </c>
       <c r="E6">
-        <v>6.494964707858165</v>
+        <v>6.31174751722182</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>45.3531335280683</v>
+        <v>40.08000194300819</v>
       </c>
       <c r="H6">
-        <v>3.558731433174465</v>
+        <v>3.304038417329369</v>
       </c>
       <c r="I6">
-        <v>4.468040632787145</v>
+        <v>4.162376021210901</v>
       </c>
       <c r="J6">
-        <v>14.36036104786485</v>
+        <v>13.21383057221546</v>
       </c>
       <c r="K6">
-        <v>23.90853240332706</v>
+        <v>21.36044221378975</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>17.01033487744595</v>
       </c>
       <c r="M6">
-        <v>10.09532945097343</v>
+        <v>14.77797330664203</v>
       </c>
       <c r="N6">
-        <v>6.519538722874921</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.34000474008595</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.73984030604687</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.99568582019561</v>
+        <v>11.82344689163726</v>
       </c>
       <c r="C7">
-        <v>6.565293856480261</v>
+        <v>6.970425954929611</v>
       </c>
       <c r="D7">
-        <v>6.214391356411697</v>
+        <v>6.224344150933931</v>
       </c>
       <c r="E7">
-        <v>6.592272149366633</v>
+        <v>6.395746706251913</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>45.85919009855327</v>
+        <v>40.42377508048408</v>
       </c>
       <c r="H7">
-        <v>3.482372361913184</v>
+        <v>3.236148717303631</v>
       </c>
       <c r="I7">
-        <v>4.40317457936905</v>
+        <v>4.107818487524762</v>
       </c>
       <c r="J7">
-        <v>14.43782429201534</v>
+        <v>13.21023513511441</v>
       </c>
       <c r="K7">
-        <v>24.06533952730623</v>
+        <v>21.41095181376133</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>17.01386219714167</v>
       </c>
       <c r="M7">
-        <v>10.32299344861632</v>
+        <v>14.83674175530594</v>
       </c>
       <c r="N7">
-        <v>6.61714289789069</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.56856827984097</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.834020500752024</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.10493461452831</v>
+        <v>12.96573044087451</v>
       </c>
       <c r="C8">
-        <v>7.158155321681948</v>
+        <v>7.675115447501198</v>
       </c>
       <c r="D8">
-        <v>6.815238773891068</v>
+        <v>6.828420102149654</v>
       </c>
       <c r="E8">
-        <v>7.01036186289069</v>
+        <v>6.753327222728239</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>48.14876265120219</v>
+        <v>41.92661962617635</v>
       </c>
       <c r="H8">
-        <v>3.155605252107831</v>
+        <v>2.944420352220484</v>
       </c>
       <c r="I8">
-        <v>4.1199313443437</v>
+        <v>3.866370553390755</v>
       </c>
       <c r="J8">
-        <v>14.80109325620734</v>
+        <v>13.33691209867842</v>
       </c>
       <c r="K8">
-        <v>24.79570139232107</v>
+        <v>21.72198181344113</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>17.09518585046136</v>
       </c>
       <c r="M8">
-        <v>11.27026286211207</v>
+        <v>15.18676956585937</v>
       </c>
       <c r="N8">
-        <v>7.030721894350221</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.52513711118646</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.236436567787432</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.15283076379146</v>
+        <v>14.95055251835912</v>
       </c>
       <c r="C9">
-        <v>8.209703546223553</v>
+        <v>8.94533325578664</v>
       </c>
       <c r="D9">
-        <v>7.926768707553357</v>
+        <v>7.936589786233574</v>
       </c>
       <c r="E9">
-        <v>7.773567771685842</v>
+        <v>7.401172435150347</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>52.56252630729313</v>
+        <v>44.77589392930741</v>
       </c>
       <c r="H9">
-        <v>2.552659726471417</v>
+        <v>2.40519431913888</v>
       </c>
       <c r="I9">
-        <v>3.589658156309002</v>
+        <v>3.411130489141343</v>
       </c>
       <c r="J9">
-        <v>15.53859888156671</v>
+        <v>13.80837310217253</v>
       </c>
       <c r="K9">
-        <v>26.25185846367339</v>
+        <v>22.4599577795817</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>17.32442463093172</v>
       </c>
       <c r="M9">
-        <v>12.93034934187956</v>
+        <v>16.07255197452662</v>
       </c>
       <c r="N9">
-        <v>7.778814656472127</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.2087451138406</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.970908586801663</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.49063627434085</v>
+        <v>16.24870237908087</v>
       </c>
       <c r="C10">
-        <v>8.988237103800062</v>
+        <v>9.812218500474984</v>
       </c>
       <c r="D10">
-        <v>8.66483797116352</v>
+        <v>8.670975849825876</v>
       </c>
       <c r="E10">
-        <v>8.128203413435214</v>
+        <v>7.700278821451569</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>54.98403769074483</v>
+        <v>46.51909670641519</v>
       </c>
       <c r="H10">
-        <v>2.167233401721901</v>
+        <v>2.067201034620439</v>
       </c>
       <c r="I10">
-        <v>3.237464378856399</v>
+        <v>3.1154635212577</v>
       </c>
       <c r="J10">
-        <v>15.93123949289791</v>
+        <v>13.72859404755706</v>
       </c>
       <c r="K10">
-        <v>26.99021620182724</v>
+        <v>22.64378171162975</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>17.20548300375839</v>
       </c>
       <c r="M10">
-        <v>14.04493582012293</v>
+        <v>16.50505337400212</v>
       </c>
       <c r="N10">
-        <v>8.152931492665246</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.323073578984</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.331102441532275</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.91384759000867</v>
+        <v>16.71115351883508</v>
       </c>
       <c r="C11">
-        <v>9.757151418381008</v>
+        <v>10.46915105771748</v>
       </c>
       <c r="D11">
-        <v>8.976790961053922</v>
+        <v>8.982057535035617</v>
       </c>
       <c r="E11">
-        <v>7.037940626503186</v>
+        <v>6.715388702320321</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>51.09891781966743</v>
+        <v>43.78344352050622</v>
       </c>
       <c r="H11">
-        <v>3.040840965513798</v>
+        <v>2.978339731600432</v>
       </c>
       <c r="I11">
-        <v>3.173351233084442</v>
+        <v>3.068371634017798</v>
       </c>
       <c r="J11">
-        <v>15.03843140145827</v>
+        <v>12.41621186866858</v>
       </c>
       <c r="K11">
-        <v>25.09985000373335</v>
+        <v>20.88862650777658</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>15.79927244282936</v>
       </c>
       <c r="M11">
-        <v>14.606367124712</v>
+        <v>15.28005863527835</v>
       </c>
       <c r="N11">
-        <v>7.16876812151316</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.84103023256564</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.325086494359749</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.00762836358931</v>
+        <v>16.84025755604899</v>
       </c>
       <c r="C12">
-        <v>10.24298205221576</v>
+        <v>10.85400131736617</v>
       </c>
       <c r="D12">
-        <v>9.089895085395256</v>
+        <v>9.095402234509551</v>
       </c>
       <c r="E12">
-        <v>6.294686286242814</v>
+        <v>6.073502297691443</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>47.46364970384233</v>
+        <v>41.08870985234904</v>
       </c>
       <c r="H12">
-        <v>4.350454867254248</v>
+        <v>4.305757618532922</v>
       </c>
       <c r="I12">
-        <v>3.16924301080813</v>
+        <v>3.063464806202979</v>
       </c>
       <c r="J12">
-        <v>14.24306360165883</v>
+        <v>11.58572787531502</v>
       </c>
       <c r="K12">
-        <v>23.44855993515849</v>
+        <v>19.5449983206924</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.78867043614257</v>
       </c>
       <c r="M12">
-        <v>14.85216249386794</v>
+        <v>14.27052209239984</v>
       </c>
       <c r="N12">
-        <v>6.295445753794282</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.0562464073491</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.439395170591894</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.84964471954509</v>
+        <v>16.71455483818362</v>
       </c>
       <c r="C13">
-        <v>10.57600376087666</v>
+        <v>11.10939471166316</v>
       </c>
       <c r="D13">
-        <v>9.060133062101732</v>
+        <v>9.066955607680574</v>
       </c>
       <c r="E13">
-        <v>5.833742077093394</v>
+        <v>5.719651670545876</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>43.54759141897772</v>
+        <v>37.95681698335108</v>
       </c>
       <c r="H13">
-        <v>5.744165037425677</v>
+        <v>5.704680270128034</v>
       </c>
       <c r="I13">
-        <v>3.225964614685366</v>
+        <v>3.106847177405727</v>
       </c>
       <c r="J13">
-        <v>13.42961354965513</v>
+        <v>11.11245569917318</v>
       </c>
       <c r="K13">
-        <v>21.78775700828592</v>
+        <v>18.40351703873325</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.97903923416782</v>
       </c>
       <c r="M13">
-        <v>14.88266906163072</v>
+        <v>13.35055244917286</v>
       </c>
       <c r="N13">
-        <v>5.460570907757215</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.06750416883988</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.600757518364471</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.62184267382042</v>
+        <v>16.50857328437059</v>
       </c>
       <c r="C14">
-        <v>10.75195996290269</v>
+        <v>11.23953879250103</v>
       </c>
       <c r="D14">
-        <v>8.974420544057416</v>
+        <v>8.982595075543182</v>
       </c>
       <c r="E14">
-        <v>5.722390880253786</v>
+        <v>5.683828422126256</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>40.6233431946792</v>
+        <v>35.53239995138455</v>
       </c>
       <c r="H14">
-        <v>6.742856284463554</v>
+        <v>6.703877103436814</v>
       </c>
       <c r="I14">
-        <v>3.295487839052004</v>
+        <v>3.162154441797051</v>
       </c>
       <c r="J14">
-        <v>12.84772413283696</v>
+        <v>10.91255573733659</v>
       </c>
       <c r="K14">
-        <v>20.61619588871016</v>
+        <v>17.6844821879719</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.48811048892102</v>
       </c>
       <c r="M14">
-        <v>14.80873270863698</v>
+        <v>12.74283205181455</v>
       </c>
       <c r="N14">
-        <v>4.917661486027613</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.98441551519495</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.058985725212085</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.50947815940859</v>
+        <v>16.40144422858389</v>
       </c>
       <c r="C15">
-        <v>10.76807339461128</v>
+        <v>11.24938973133468</v>
       </c>
       <c r="D15">
-        <v>8.922643842236054</v>
+        <v>8.931368629184544</v>
       </c>
       <c r="E15">
-        <v>5.717591778900114</v>
+        <v>5.698700682874116</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>39.80727398570056</v>
+        <v>34.82417297983136</v>
       </c>
       <c r="H15">
-        <v>6.97822509094549</v>
+        <v>6.938230048790904</v>
       </c>
       <c r="I15">
-        <v>3.3304904961593</v>
+        <v>3.191655878699929</v>
       </c>
       <c r="J15">
-        <v>12.69372458519458</v>
+        <v>10.91190007977095</v>
       </c>
       <c r="K15">
-        <v>20.31010762560163</v>
+        <v>17.52783078698233</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.38755475497415</v>
       </c>
       <c r="M15">
-        <v>14.74537870281756</v>
+        <v>12.59975783857338</v>
       </c>
       <c r="N15">
-        <v>4.790242565744114</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.92082272468398</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>4.933485649313495</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.98128888931271</v>
+        <v>15.87193479966349</v>
       </c>
       <c r="C16">
-        <v>10.42152940902518</v>
+        <v>10.94929798183382</v>
       </c>
       <c r="D16">
-        <v>8.62508308159352</v>
+        <v>8.635782155265078</v>
       </c>
       <c r="E16">
-        <v>5.615618598224757</v>
+        <v>5.614816329182723</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>39.31245033148564</v>
+        <v>34.18620438756832</v>
       </c>
       <c r="H16">
-        <v>6.80716801298941</v>
+        <v>6.755345369192232</v>
       </c>
       <c r="I16">
-        <v>3.474403151762418</v>
+        <v>3.310346776580334</v>
       </c>
       <c r="J16">
-        <v>12.65969349990252</v>
+        <v>11.38065662302485</v>
       </c>
       <c r="K16">
-        <v>20.26577486902107</v>
+        <v>17.78560746470443</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.62875827847705</v>
       </c>
       <c r="M16">
-        <v>14.28998439617241</v>
+        <v>12.71655092372698</v>
       </c>
       <c r="N16">
-        <v>4.761456782152347</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.48439874881502</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>4.920171573876714</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.69391583209009</v>
+        <v>15.57388740973097</v>
       </c>
       <c r="C17">
-        <v>10.04959017091646</v>
+        <v>10.62671163384435</v>
       </c>
       <c r="D17">
-        <v>8.439665752276868</v>
+        <v>8.451051447274548</v>
       </c>
       <c r="E17">
-        <v>5.554004712869305</v>
+        <v>5.521553288962824</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>40.52477246498326</v>
+        <v>35.06536724720149</v>
       </c>
       <c r="H17">
-        <v>6.121339956546487</v>
+        <v>6.057662996519348</v>
       </c>
       <c r="I17">
-        <v>3.548992191057815</v>
+        <v>3.373822610030659</v>
       </c>
       <c r="J17">
-        <v>12.94323700002625</v>
+        <v>11.81065622736959</v>
       </c>
       <c r="K17">
-        <v>20.85121351071064</v>
+        <v>18.34540528412485</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14.07427219337519</v>
       </c>
       <c r="M17">
-        <v>13.9737880934866</v>
+        <v>13.10420147350981</v>
       </c>
       <c r="N17">
-        <v>5.020558766566789</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.18528989013249</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.189428497959688</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.59415296398723</v>
+        <v>15.45022568314706</v>
       </c>
       <c r="C18">
-        <v>9.607328579206241</v>
+        <v>10.25492907568252</v>
       </c>
       <c r="D18">
-        <v>8.333683348382994</v>
+        <v>8.344877681039423</v>
       </c>
       <c r="E18">
-        <v>5.742288070118073</v>
+        <v>5.62165907937143</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>43.45659734352172</v>
+        <v>37.34922338851014</v>
       </c>
       <c r="H18">
-        <v>4.952614874989441</v>
+        <v>4.873224012134671</v>
       </c>
       <c r="I18">
-        <v>3.559099149029221</v>
+        <v>3.381759212066282</v>
       </c>
       <c r="J18">
-        <v>13.56072143144554</v>
+        <v>12.37154502814693</v>
       </c>
       <c r="K18">
-        <v>22.11725304927617</v>
+        <v>19.33102582127579</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.82976692457954</v>
       </c>
       <c r="M18">
-        <v>13.74584224139935</v>
+        <v>13.83724814945315</v>
       </c>
       <c r="N18">
-        <v>5.619636618648373</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.97875390397838</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.795920064350088</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.64607605123438</v>
+        <v>15.46930809109302</v>
       </c>
       <c r="C19">
-        <v>9.192583550357156</v>
+        <v>9.919738683613129</v>
       </c>
       <c r="D19">
-        <v>8.300861393992417</v>
+        <v>8.311201664715311</v>
       </c>
       <c r="E19">
-        <v>6.392187461217695</v>
+        <v>6.149827615204758</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>47.34241521092024</v>
+        <v>40.38087931733866</v>
       </c>
       <c r="H19">
-        <v>3.609190629784378</v>
+        <v>3.507781555791742</v>
       </c>
       <c r="I19">
-        <v>3.529568231753843</v>
+        <v>3.361216953473991</v>
       </c>
       <c r="J19">
-        <v>14.37097542568319</v>
+        <v>13.00946816777233</v>
       </c>
       <c r="K19">
-        <v>23.7859108326984</v>
+        <v>20.56556645266946</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>15.76445654740585</v>
       </c>
       <c r="M19">
-        <v>13.61832197339906</v>
+        <v>14.77398463450694</v>
       </c>
       <c r="N19">
-        <v>6.507379267096884</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.87447030476261</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.688979994812011</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.13347701058979</v>
+        <v>15.89849897936687</v>
       </c>
       <c r="C20">
-        <v>8.836686468712685</v>
+        <v>9.6674817763275</v>
       </c>
       <c r="D20">
-        <v>8.475705343822559</v>
+        <v>8.48323022112268</v>
       </c>
       <c r="E20">
-        <v>8.00866969917978</v>
+        <v>7.593907346923336</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>53.97614688614847</v>
+        <v>45.59963843940501</v>
       </c>
       <c r="H20">
-        <v>2.271325268325332</v>
+        <v>2.156007483707373</v>
       </c>
       <c r="I20">
-        <v>3.358551932139985</v>
+        <v>3.22400565778006</v>
       </c>
       <c r="J20">
-        <v>15.7463526821256</v>
+        <v>13.87189838206781</v>
       </c>
       <c r="K20">
-        <v>26.62158047609645</v>
+        <v>22.52959939411387</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>17.1872290660549</v>
       </c>
       <c r="M20">
-        <v>13.77072076941085</v>
+        <v>16.33883508584217</v>
       </c>
       <c r="N20">
-        <v>8.05356905117794</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.05494805181259</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.237904527842758</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.14125691746285</v>
+        <v>16.89663255356088</v>
       </c>
       <c r="C21">
-        <v>9.336192413605065</v>
+        <v>10.10244590185745</v>
       </c>
       <c r="D21">
-        <v>9.019481577275732</v>
+        <v>9.0221866616531</v>
       </c>
       <c r="E21">
-        <v>8.521211880008394</v>
+        <v>8.074076728994692</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>56.71977631416253</v>
+        <v>48.39616699620446</v>
       </c>
       <c r="H21">
-        <v>1.930566735004123</v>
+        <v>1.863584547156604</v>
       </c>
       <c r="I21">
-        <v>3.076018638022255</v>
+        <v>2.99772025078186</v>
       </c>
       <c r="J21">
-        <v>16.24671713281801</v>
+        <v>12.99592335328117</v>
       </c>
       <c r="K21">
-        <v>27.59755669126209</v>
+        <v>22.581715705573</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>17.03294465263466</v>
       </c>
       <c r="M21">
-        <v>14.57411499483841</v>
+        <v>16.61062981737889</v>
       </c>
       <c r="N21">
-        <v>8.539583533483611</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.82638034865399</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.699518019661244</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.76900694523903</v>
+        <v>17.52146431577504</v>
       </c>
       <c r="C22">
-        <v>9.660935289405412</v>
+        <v>10.37445271389717</v>
       </c>
       <c r="D22">
-        <v>9.361165900895738</v>
+        <v>9.36045336677779</v>
       </c>
       <c r="E22">
-        <v>8.774191353859376</v>
+        <v>8.31524358436792</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>58.32281024713662</v>
+        <v>50.15457971009688</v>
       </c>
       <c r="H22">
-        <v>1.725762304064223</v>
+        <v>1.689739129927245</v>
       </c>
       <c r="I22">
-        <v>2.887197206287654</v>
+        <v>2.842556431028473</v>
       </c>
       <c r="J22">
-        <v>16.53907421034788</v>
+        <v>12.36188524280043</v>
       </c>
       <c r="K22">
-        <v>28.16168089455897</v>
+        <v>22.54367538555503</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>16.88019909370773</v>
       </c>
       <c r="M22">
-        <v>15.07933478036228</v>
+        <v>16.73721308192378</v>
       </c>
       <c r="N22">
-        <v>8.777879794882608</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.30799850946243</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.921331492064732</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.44207005014139</v>
+        <v>17.19156074582574</v>
       </c>
       <c r="C23">
-        <v>9.471691468783531</v>
+        <v>10.23111517475117</v>
       </c>
       <c r="D23">
-        <v>9.180201061794003</v>
+        <v>9.181466214626729</v>
       </c>
       <c r="E23">
-        <v>8.647445800731413</v>
+        <v>8.189155267456755</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>57.60057821035135</v>
+        <v>49.22536249136547</v>
       </c>
       <c r="H23">
-        <v>1.833058696267928</v>
+        <v>1.779593442089542</v>
       </c>
       <c r="I23">
-        <v>2.975598586451659</v>
+        <v>2.909940530646855</v>
       </c>
       <c r="J23">
-        <v>16.41179775438578</v>
+        <v>12.84793050150649</v>
       </c>
       <c r="K23">
-        <v>27.92277465887564</v>
+        <v>22.66892309990186</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>17.03813260654419</v>
       </c>
       <c r="M23">
-        <v>14.80793244375958</v>
+        <v>16.75104546362792</v>
       </c>
       <c r="N23">
-        <v>8.6502071492433</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.05423626468171</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.804663914944456</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.13922303493686</v>
+        <v>15.89974385881709</v>
       </c>
       <c r="C24">
-        <v>8.764346220119108</v>
+        <v>9.599571679070737</v>
       </c>
       <c r="D24">
-        <v>8.467503449214348</v>
+        <v>8.474887493224955</v>
       </c>
       <c r="E24">
-        <v>8.140473476061933</v>
+        <v>7.714056244865791</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>54.58410366434245</v>
+        <v>46.08742817161527</v>
       </c>
       <c r="H24">
-        <v>2.249201845983166</v>
+        <v>2.134671414664748</v>
       </c>
       <c r="I24">
-        <v>3.337744131084758</v>
+        <v>3.201147491853538</v>
       </c>
       <c r="J24">
-        <v>15.87884534516063</v>
+        <v>13.98605795459118</v>
       </c>
       <c r="K24">
-        <v>26.90160251547259</v>
+        <v>22.75074533987377</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>17.35653487170751</v>
       </c>
       <c r="M24">
-        <v>13.74450988149004</v>
+        <v>16.50402936180773</v>
       </c>
       <c r="N24">
-        <v>8.153263399431804</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.03164335598862</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.338732339240837</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.6129431343716</v>
+        <v>14.43001675906927</v>
       </c>
       <c r="C25">
-        <v>7.96307390391252</v>
+        <v>8.656643919192909</v>
       </c>
       <c r="D25">
-        <v>7.639622963741314</v>
+        <v>7.650657585634078</v>
       </c>
       <c r="E25">
-        <v>7.561785047797873</v>
+        <v>7.219282885082516</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>51.18412015573782</v>
+        <v>43.77600241501123</v>
       </c>
       <c r="H25">
-        <v>2.714364857470266</v>
+        <v>2.548609836690089</v>
       </c>
       <c r="I25">
-        <v>3.744893244561372</v>
+        <v>3.54763942860103</v>
       </c>
       <c r="J25">
-        <v>15.29531712925267</v>
+        <v>13.72402988506589</v>
       </c>
       <c r="K25">
-        <v>25.7665677306885</v>
+        <v>22.21522118675788</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>17.23119693156875</v>
       </c>
       <c r="M25">
-        <v>12.50801361969636</v>
+        <v>15.78857648275502</v>
       </c>
       <c r="N25">
-        <v>7.585228372557371</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.78299221819152</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.781664398214316</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
